--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8844"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="225">
   <si>
     <t>@default</t>
   </si>
@@ -22,12 +22,27 @@
     <t>Character</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>SexagenaryCycle</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
     <t>人物</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
     <t>庙号</t>
   </si>
   <si>
@@ -46,6 +61,9 @@
     <t>继位月</t>
   </si>
   <si>
+    <t>继位干支日</t>
+  </si>
+  <si>
     <t>继位日</t>
   </si>
   <si>
@@ -55,6 +73,9 @@
     <t>退位月</t>
   </si>
   <si>
+    <t>退位干支日</t>
+  </si>
+  <si>
     <t>退位日</t>
   </si>
   <si>
@@ -64,6 +85,9 @@
     <t>再次继位月</t>
   </si>
   <si>
+    <t>再次继位干支日</t>
+  </si>
+  <si>
     <t>再次继位日</t>
   </si>
   <si>
@@ -73,9 +97,15 @@
     <t>再次退位月</t>
   </si>
   <si>
+    <t>再次退位干支日</t>
+  </si>
+  <si>
     <t>再次退位日</t>
   </si>
   <si>
+    <t>存疑</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -91,6 +121,9 @@
     <t>character</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>dynasticTitle</t>
   </si>
   <si>
@@ -109,6 +142,9 @@
     <t>beginMonth</t>
   </si>
   <si>
+    <t>beginSexagenaryCycle</t>
+  </si>
+  <si>
     <t>beginDay</t>
   </si>
   <si>
@@ -118,6 +154,9 @@
     <t>endMonth</t>
   </si>
   <si>
+    <t>endSexagenaryCycle</t>
+  </si>
+  <si>
     <t>endDay</t>
   </si>
   <si>
@@ -127,6 +166,9 @@
     <t>againBeginMonth</t>
   </si>
   <si>
+    <t>againBeginSexagenaryCycle</t>
+  </si>
+  <si>
     <t>againBeginDay</t>
   </si>
   <si>
@@ -136,7 +178,517 @@
     <t>againEndMonth</t>
   </si>
   <si>
+    <t>againEndSexagenaryCycle</t>
+  </si>
+  <si>
     <t>againEndDay</t>
+  </si>
+  <si>
+    <t>unansweredQuestion</t>
+  </si>
+  <si>
+    <t>盤古</t>
+  </si>
+  <si>
+    <t>天皇</t>
+  </si>
+  <si>
+    <t>地皇</t>
+  </si>
+  <si>
+    <t>人皇</t>
+  </si>
+  <si>
+    <t>有巢</t>
+  </si>
+  <si>
+    <t>燧人</t>
+  </si>
+  <si>
+    <t>伏羲</t>
+  </si>
+  <si>
+    <t>女媧</t>
+  </si>
+  <si>
+    <t>炎帝</t>
+  </si>
+  <si>
+    <t>黃帝</t>
+  </si>
+  <si>
+    <t>少昊</t>
+  </si>
+  <si>
+    <t>顓頊</t>
+  </si>
+  <si>
+    <t>嚳</t>
+  </si>
+  <si>
+    <t>摯</t>
+  </si>
+  <si>
+    <t>堯</t>
+  </si>
+  <si>
+    <t>虞舜</t>
+  </si>
+  <si>
+    <t>夏禹</t>
+  </si>
+  <si>
+    <t>啓</t>
+  </si>
+  <si>
+    <t>太康</t>
+  </si>
+  <si>
+    <t>中康</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>少康</t>
+  </si>
+  <si>
+    <t>予</t>
+  </si>
+  <si>
+    <t>槐</t>
+  </si>
+  <si>
+    <t>芒</t>
+  </si>
+  <si>
+    <t>泄</t>
+  </si>
+  <si>
+    <t>不降</t>
+  </si>
+  <si>
+    <t>扃</t>
+  </si>
+  <si>
+    <t>厪</t>
+  </si>
+  <si>
+    <t>孔甲</t>
+  </si>
+  <si>
+    <t>皋</t>
+  </si>
+  <si>
+    <t>發</t>
+  </si>
+  <si>
+    <t>桀</t>
+  </si>
+  <si>
+    <t>契</t>
+  </si>
+  <si>
+    <t>昭明</t>
+  </si>
+  <si>
+    <t>相土</t>
+  </si>
+  <si>
+    <t>昌若</t>
+  </si>
+  <si>
+    <t>曹圉</t>
+  </si>
+  <si>
+    <t>冥</t>
+  </si>
+  <si>
+    <t>振</t>
+  </si>
+  <si>
+    <t>微</t>
+  </si>
+  <si>
+    <t>報丁</t>
+  </si>
+  <si>
+    <t>報乙</t>
+  </si>
+  <si>
+    <t>報丙</t>
+  </si>
+  <si>
+    <t>主壬</t>
+  </si>
+  <si>
+    <t>主癸</t>
+  </si>
+  <si>
+    <t>后稷</t>
+  </si>
+  <si>
+    <t>不窋</t>
+  </si>
+  <si>
+    <t>成湯</t>
+  </si>
+  <si>
+    <t>外丙</t>
+  </si>
+  <si>
+    <t>中壬</t>
+  </si>
+  <si>
+    <t>太甲</t>
+  </si>
+  <si>
+    <t>太宗</t>
+  </si>
+  <si>
+    <t>沃丁</t>
+  </si>
+  <si>
+    <t>太庚</t>
+  </si>
+  <si>
+    <t>小甲</t>
+  </si>
+  <si>
+    <t>雍己</t>
+  </si>
+  <si>
+    <t>太戊</t>
+  </si>
+  <si>
+    <t>中宗</t>
+  </si>
+  <si>
+    <t>中丁</t>
+  </si>
+  <si>
+    <t>外壬</t>
+  </si>
+  <si>
+    <t>河亶甲</t>
+  </si>
+  <si>
+    <t>祖乙</t>
+  </si>
+  <si>
+    <t>祖辛</t>
+  </si>
+  <si>
+    <t>沃甲</t>
+  </si>
+  <si>
+    <t>祖丁</t>
+  </si>
+  <si>
+    <t>南庚</t>
+  </si>
+  <si>
+    <t>陽甲</t>
+  </si>
+  <si>
+    <t>盤庚</t>
+  </si>
+  <si>
+    <t>小辛</t>
+  </si>
+  <si>
+    <t>小乙</t>
+  </si>
+  <si>
+    <t>武丁</t>
+  </si>
+  <si>
+    <t>高宗</t>
+  </si>
+  <si>
+    <t>祖庚</t>
+  </si>
+  <si>
+    <t>祖甲</t>
+  </si>
+  <si>
+    <t>廩辛</t>
+  </si>
+  <si>
+    <t>庚丁</t>
+  </si>
+  <si>
+    <t>武乙</t>
+  </si>
+  <si>
+    <t>太丁</t>
+  </si>
+  <si>
+    <t>乙</t>
+  </si>
+  <si>
+    <t>紂</t>
+  </si>
+  <si>
+    <t>鞠</t>
+  </si>
+  <si>
+    <t>公劉</t>
+  </si>
+  <si>
+    <t>慶節</t>
+  </si>
+  <si>
+    <t>皇僕</t>
+  </si>
+  <si>
+    <t>差弗</t>
+  </si>
+  <si>
+    <t>毀隃</t>
+  </si>
+  <si>
+    <t>公非</t>
+  </si>
+  <si>
+    <t>髙圉</t>
+  </si>
+  <si>
+    <t>亞圉</t>
+  </si>
+  <si>
+    <t>公孫祖類</t>
+  </si>
+  <si>
+    <t>古公亶父</t>
+  </si>
+  <si>
+    <t>公季</t>
+  </si>
+  <si>
+    <t>姬昌</t>
+  </si>
+  <si>
+    <t>文王</t>
+  </si>
+  <si>
+    <t>姬發</t>
+  </si>
+  <si>
+    <t>武王</t>
+  </si>
+  <si>
+    <t>姬誦</t>
+  </si>
+  <si>
+    <t>成王</t>
+  </si>
+  <si>
+    <t>姬釗</t>
+  </si>
+  <si>
+    <t>康王</t>
+  </si>
+  <si>
+    <t>姬瑕</t>
+  </si>
+  <si>
+    <t>昭王</t>
+  </si>
+  <si>
+    <t>姬滿</t>
+  </si>
+  <si>
+    <t>穆王</t>
+  </si>
+  <si>
+    <t>姬繄扈</t>
+  </si>
+  <si>
+    <t>共王</t>
+  </si>
+  <si>
+    <t>姬囏</t>
+  </si>
+  <si>
+    <t>懿王</t>
+  </si>
+  <si>
+    <t>姬辟方</t>
+  </si>
+  <si>
+    <t>孝王</t>
+  </si>
+  <si>
+    <t>姬燮</t>
+  </si>
+  <si>
+    <t>夷王</t>
+  </si>
+  <si>
+    <t>姬胡</t>
+  </si>
+  <si>
+    <t>厲王</t>
+  </si>
+  <si>
+    <t>姬靜</t>
+  </si>
+  <si>
+    <t>宣王</t>
+  </si>
+  <si>
+    <t>姬宮湦</t>
+  </si>
+  <si>
+    <t>幽王</t>
+  </si>
+  <si>
+    <t>姬宜臼</t>
+  </si>
+  <si>
+    <t>平王</t>
+  </si>
+  <si>
+    <t>姬林</t>
+  </si>
+  <si>
+    <t>桓王</t>
+  </si>
+  <si>
+    <t>姬佗</t>
+  </si>
+  <si>
+    <t>莊王</t>
+  </si>
+  <si>
+    <t>姬胡齊</t>
+  </si>
+  <si>
+    <t>釐王</t>
+  </si>
+  <si>
+    <t>姬閬</t>
+  </si>
+  <si>
+    <t>惠王</t>
+  </si>
+  <si>
+    <t>姬鄭</t>
+  </si>
+  <si>
+    <t>襄王</t>
+  </si>
+  <si>
+    <t>姬壬臣</t>
+  </si>
+  <si>
+    <t>頃王</t>
+  </si>
+  <si>
+    <t>姬班</t>
+  </si>
+  <si>
+    <t>匡王</t>
+  </si>
+  <si>
+    <t>姬瑜</t>
+  </si>
+  <si>
+    <t>定王</t>
+  </si>
+  <si>
+    <t>姬夷</t>
+  </si>
+  <si>
+    <t>簡王</t>
+  </si>
+  <si>
+    <t>姬泄心</t>
+  </si>
+  <si>
+    <t>靈王</t>
+  </si>
+  <si>
+    <t>姬貴</t>
+  </si>
+  <si>
+    <t>景王</t>
+  </si>
+  <si>
+    <t>姬猛</t>
+  </si>
+  <si>
+    <t>悼王</t>
+  </si>
+  <si>
+    <t>姬丐</t>
+  </si>
+  <si>
+    <t>敬王</t>
+  </si>
+  <si>
+    <t>姬仁</t>
+  </si>
+  <si>
+    <t>元王</t>
+  </si>
+  <si>
+    <t>姬介</t>
+  </si>
+  <si>
+    <t>姬去疾</t>
+  </si>
+  <si>
+    <t>哀王</t>
+  </si>
+  <si>
+    <t>姬叔</t>
+  </si>
+  <si>
+    <t>思王</t>
+  </si>
+  <si>
+    <t>姬嵬</t>
+  </si>
+  <si>
+    <t>考王</t>
+  </si>
+  <si>
+    <t>姬午</t>
+  </si>
+  <si>
+    <t>威烈王</t>
+  </si>
+  <si>
+    <t>姬驕</t>
+  </si>
+  <si>
+    <t>安王</t>
+  </si>
+  <si>
+    <t>姬喜</t>
+  </si>
+  <si>
+    <t>烈王</t>
+  </si>
+  <si>
+    <t>姬扁</t>
+  </si>
+  <si>
+    <t>顯王</t>
+  </si>
+  <si>
+    <t>姬定</t>
+  </si>
+  <si>
+    <t>慎靚王</t>
+  </si>
+  <si>
+    <t>姬延</t>
+  </si>
+  <si>
+    <t>赧王</t>
   </si>
 </sst>
 </file>
@@ -149,7 +701,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +713,13 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -615,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,34 +1186,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,102 +1222,108 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,215 +1645,2154 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13.1111111111111" style="1"/>
-    <col min="2" max="3" width="16.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="12" width="9.77777777777778" style="1"/>
-    <col min="13" max="13" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.8888888888889" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.8888888888889" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.4444444444444" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.77777777777778" style="1"/>
+    <col min="2" max="2" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.9722222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.07407407407407" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1018518518519" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6481481481481" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.1111111111111" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="15" width="9.77777777777778" style="1"/>
+    <col min="16" max="16" width="18.1111111111111" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1388888888889" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.462962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.2037037037037" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.0462962962963" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.9166666666667" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6203703703704" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.4444444444444" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.77777777777778" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>23</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>30</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>100100001</v>
+        <v>100110001</v>
       </c>
       <c r="B5" s="1">
         <f>A5</f>
-        <v>100100001</v>
+        <v>100110001</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>100110002</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B21" si="0">A6</f>
+        <v>100110002</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>100110003</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>100110003</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>100110004</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>100110004</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>100110005</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>100110005</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>100110006</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>100110006</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>100110007</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>100110007</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>100190011</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>100190011</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>100110008</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>100110008</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>100210001</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:B21" si="1">A15</f>
+        <v>100210001</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>100210002</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>100210002</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>100210003</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>100210003</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>100210004</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>100210004</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>100210005</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>100210005</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>100210006</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>100210006</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>100210007</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>100210007</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>200110001</v>
+      </c>
+      <c r="B23" s="1">
+        <f>A23</f>
+        <v>200110001</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>200110002</v>
+      </c>
+      <c r="B24" s="1">
+        <f>A24</f>
+        <v>200110002</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>200110003</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" ref="B25:B39" si="2">A25</f>
+        <v>200110003</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>200110004</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>200110004</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>200110005</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>200110005</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>200110006</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="2"/>
+        <v>200110006</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>200110007</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="2"/>
+        <v>200110007</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>200110008</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="2"/>
+        <v>200110008</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>200110009</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>200110009</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>200110010</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
+        <v>200110010</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>200110011</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="2"/>
+        <v>200110011</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>200110012</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="2"/>
+        <v>200110012</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>200110013</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="2"/>
+        <v>200110013</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>200110014</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="2"/>
+        <v>200110014</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>200110015</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="2"/>
+        <v>200110015</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>200110016</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="2"/>
+        <v>200110016</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>200110017</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="2"/>
+        <v>200110017</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>200210001</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" ref="B40:B53" si="3">A41</f>
+        <v>200210001</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>200210002</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="3"/>
+        <v>200210002</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>200210003</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="3"/>
+        <v>200210003</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>200210004</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="3"/>
+        <v>200210004</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>200210005</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="3"/>
+        <v>200210005</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>200210006</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="3"/>
+        <v>200210006</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>200210007</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="3"/>
+        <v>200210007</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>200210008</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="3"/>
+        <v>200210008</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>200210009</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="3"/>
+        <v>200210009</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>200210010</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="3"/>
+        <v>200210010</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>200210011</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="3"/>
+        <v>200210011</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>200210012</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="3"/>
+        <v>200210012</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>200210013</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="3"/>
+        <v>200210013</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>200220001</v>
+      </c>
+      <c r="B55" s="1">
+        <f>A55</f>
+        <v>200220001</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>200220002</v>
+      </c>
+      <c r="B56" s="1">
+        <f>A56</f>
+        <v>200220002</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>300110001</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" ref="B58:B66" si="4">A58</f>
+        <v>300110001</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>300110002</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="4"/>
+        <v>300110002</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>300110003</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="4"/>
+        <v>300110003</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>300110004</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="4"/>
+        <v>300110004</v>
+      </c>
+      <c r="C61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>300110005</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="4"/>
+        <v>300110005</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>300110006</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="4"/>
+        <v>300110006</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>300110007</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="4"/>
+        <v>300110007</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>300110008</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="4"/>
+        <v>300110008</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>300110009</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="4"/>
+        <v>300110009</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>300110010</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" ref="B67:B80" si="5">A67</f>
+        <v>300110010</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>300110011</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="5"/>
+        <v>300110011</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>300110012</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="5"/>
+        <v>300110012</v>
+      </c>
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>300110013</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="5"/>
+        <v>300110013</v>
+      </c>
+      <c r="C70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>300110014</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="5"/>
+        <v>300110014</v>
+      </c>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>300110015</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="5"/>
+        <v>300110015</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>300110016</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="5"/>
+        <v>300110016</v>
+      </c>
+      <c r="C73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>300110017</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="5"/>
+        <v>300110017</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>300110018</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="5"/>
+        <v>300110018</v>
+      </c>
+      <c r="C75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>300110019</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="5"/>
+        <v>300110019</v>
+      </c>
+      <c r="C76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>300110020</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="5"/>
+        <v>300110020</v>
+      </c>
+      <c r="C77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>300110021</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="5"/>
+        <v>300110021</v>
+      </c>
+      <c r="C78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>300110022</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="5"/>
+        <v>300110022</v>
+      </c>
+      <c r="C79" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>300110023</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="5"/>
+        <v>300110023</v>
+      </c>
+      <c r="C80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>300110024</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" ref="B81:B87" si="6">A81</f>
+        <v>300110024</v>
+      </c>
+      <c r="C81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>300110025</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="6"/>
+        <v>300110025</v>
+      </c>
+      <c r="C82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>300110026</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="6"/>
+        <v>300110026</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>300110027</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="6"/>
+        <v>300110027</v>
+      </c>
+      <c r="C84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>300110028</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="6"/>
+        <v>300110028</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>300110029</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="6"/>
+        <v>300110029</v>
+      </c>
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>300110030</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="6"/>
+        <v>300110030</v>
+      </c>
+      <c r="C87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>300210001</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" ref="B88:B101" si="7">A89</f>
+        <v>300210001</v>
+      </c>
+      <c r="C89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>300210002</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="7"/>
+        <v>300210002</v>
+      </c>
+      <c r="C90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>300210003</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="7"/>
+        <v>300210003</v>
+      </c>
+      <c r="C91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>300210004</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="7"/>
+        <v>300210004</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>300210005</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="7"/>
+        <v>300210005</v>
+      </c>
+      <c r="C93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>300210006</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="7"/>
+        <v>300210006</v>
+      </c>
+      <c r="C94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>300210007</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="7"/>
+        <v>300210007</v>
+      </c>
+      <c r="C95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>300210008</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="7"/>
+        <v>300210008</v>
+      </c>
+      <c r="C96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>300210009</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="7"/>
+        <v>300210009</v>
+      </c>
+      <c r="C97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>300210010</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="7"/>
+        <v>300210010</v>
+      </c>
+      <c r="C98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>300210011</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="7"/>
+        <v>300210011</v>
+      </c>
+      <c r="C99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>300210012</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="7"/>
+        <v>300210012</v>
+      </c>
+      <c r="C100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>300210013</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="7"/>
+        <v>300210013</v>
+      </c>
+      <c r="C101" t="s">
+        <v>150</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="1">
+        <f t="shared" ref="B102:B114" si="8">A102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>400110001</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="8"/>
+        <v>400110001</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>400110002</v>
+      </c>
+      <c r="B104" s="1">
+        <f t="shared" si="8"/>
+        <v>400110002</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>400110003</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" si="8"/>
+        <v>400110003</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>400110004</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" si="8"/>
+        <v>400110004</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>400110005</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" si="8"/>
+        <v>400110005</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>400110006</v>
+      </c>
+      <c r="B108" s="1">
+        <f t="shared" si="8"/>
+        <v>400110006</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>400110007</v>
+      </c>
+      <c r="B109" s="1">
+        <f t="shared" si="8"/>
+        <v>400110007</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>400110008</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="8"/>
+        <v>400110008</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>400110009</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="8"/>
+        <v>400110009</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="1">
+        <v>400110010</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="8"/>
+        <v>400110010</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L112" s="1">
+        <v>-841</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1">
+        <v>400110011</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="8"/>
+        <v>400110011</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H113" s="1">
+        <v>-827</v>
+      </c>
+      <c r="L113" s="1">
+        <v>-782</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="1">
+        <v>400110012</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="8"/>
+        <v>400110012</v>
+      </c>
+      <c r="C114" t="s">
+        <v>174</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H114" s="1">
+        <v>-781</v>
+      </c>
+      <c r="L114" s="1">
+        <v>-771</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="1">
+        <v>400210001</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" ref="B115:B151" si="9">A116</f>
+        <v>400210001</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H116" s="1">
+        <v>-770</v>
+      </c>
+      <c r="L116" s="1">
+        <v>-720</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1">
+        <v>400210002</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="9"/>
+        <v>400210002</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H117" s="1">
+        <v>-719</v>
+      </c>
+      <c r="L117" s="1">
+        <v>-697</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="1">
+        <v>400210003</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="9"/>
+        <v>400210003</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H118" s="1">
+        <v>-696</v>
+      </c>
+      <c r="L118" s="1">
+        <v>-682</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1">
+        <v>400210004</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" si="9"/>
+        <v>400210004</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H119" s="1">
+        <v>-681</v>
+      </c>
+      <c r="L119" s="1">
+        <v>-677</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1">
+        <v>400210005</v>
+      </c>
+      <c r="B120" s="1">
+        <f t="shared" si="9"/>
+        <v>400210005</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H120" s="1">
+        <v>-676</v>
+      </c>
+      <c r="L120" s="1">
+        <v>-652</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1">
+        <v>400210006</v>
+      </c>
+      <c r="B121" s="1">
+        <f t="shared" si="9"/>
+        <v>400210006</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H121" s="1">
+        <v>-651</v>
+      </c>
+      <c r="L121" s="1">
+        <v>-619</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="1">
+        <v>400210007</v>
+      </c>
+      <c r="B122" s="1">
+        <f t="shared" si="9"/>
+        <v>400210007</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H122" s="1">
+        <v>-618</v>
+      </c>
+      <c r="L122" s="1">
+        <v>-613</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="1">
+        <v>400210008</v>
+      </c>
+      <c r="B123" s="1">
+        <f t="shared" si="9"/>
+        <v>400210008</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H123" s="1">
+        <v>-612</v>
+      </c>
+      <c r="L123" s="1">
+        <v>-607</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="1">
+        <v>400210009</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" si="9"/>
+        <v>400210009</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H124" s="1">
+        <v>-606</v>
+      </c>
+      <c r="L124" s="1">
+        <v>-586</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="1">
+        <v>400210010</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" si="9"/>
+        <v>400210010</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H125" s="1">
+        <v>-585</v>
+      </c>
+      <c r="L125" s="1">
+        <v>-572</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="1">
+        <v>400210011</v>
+      </c>
+      <c r="B126" s="1">
+        <f t="shared" si="9"/>
+        <v>400210011</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H126" s="1">
+        <v>-571</v>
+      </c>
+      <c r="L126" s="1">
+        <v>-545</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="1">
+        <v>400210012</v>
+      </c>
+      <c r="B127" s="1">
+        <f t="shared" si="9"/>
+        <v>400210012</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H127" s="1">
+        <v>-544</v>
+      </c>
+      <c r="L127" s="1">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="1">
+        <v>400210013</v>
+      </c>
+      <c r="B128" s="1">
+        <f t="shared" si="9"/>
+        <v>400210013</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H128" s="1">
+        <v>-520</v>
+      </c>
+      <c r="L128" s="1">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
+      <c r="A129" s="1">
+        <v>400210014</v>
+      </c>
+      <c r="B129" s="1">
+        <f t="shared" si="9"/>
+        <v>400210014</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H129" s="1">
+        <v>-519</v>
+      </c>
+      <c r="L129" s="1">
+        <v>-476</v>
+      </c>
+      <c r="X129" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
+      <c r="A130" s="1">
+        <v>400210015</v>
+      </c>
+      <c r="B130" s="1">
+        <f t="shared" si="9"/>
+        <v>400210015</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H130" s="1">
+        <v>-475</v>
+      </c>
+      <c r="L130" s="1">
+        <v>-469</v>
+      </c>
+      <c r="X130" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="1">
+        <v>400210016</v>
+      </c>
+      <c r="B131" s="1">
+        <f t="shared" si="9"/>
+        <v>400210016</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H131" s="1">
+        <v>-468</v>
+      </c>
+      <c r="L131" s="1">
+        <v>-441</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="1">
+        <v>400210017</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" si="9"/>
+        <v>400210017</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H132" s="1">
+        <v>-441</v>
+      </c>
+      <c r="L132" s="1">
+        <v>-441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="1">
+        <v>400210018</v>
+      </c>
+      <c r="B133" s="1">
+        <f t="shared" si="9"/>
+        <v>400210018</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H133" s="1">
+        <v>-441</v>
+      </c>
+      <c r="L133" s="1">
+        <v>-441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="1">
+        <v>400210019</v>
+      </c>
+      <c r="B134" s="1">
+        <f t="shared" si="9"/>
+        <v>400210019</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H134" s="1">
+        <v>-440</v>
+      </c>
+      <c r="L134" s="1">
+        <v>-426</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="1">
+        <v>400210020</v>
+      </c>
+      <c r="B135" s="1">
+        <f t="shared" si="9"/>
+        <v>400210020</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H135" s="1">
+        <v>-425</v>
+      </c>
+      <c r="L135" s="1">
+        <v>-402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="1">
+        <v>400210021</v>
+      </c>
+      <c r="B136" s="1">
+        <f t="shared" si="9"/>
+        <v>400210021</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H136" s="1">
+        <v>-401</v>
+      </c>
+      <c r="L136" s="1">
+        <v>-376</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="1">
+        <v>400210022</v>
+      </c>
+      <c r="B137" s="1">
+        <f t="shared" si="9"/>
+        <v>400210022</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H137" s="1">
+        <v>-375</v>
+      </c>
+      <c r="L137" s="1">
+        <v>-369</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="1">
+        <v>400210023</v>
+      </c>
+      <c r="B138" s="1">
+        <f t="shared" si="9"/>
+        <v>400210023</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H138" s="1">
+        <v>-368</v>
+      </c>
+      <c r="L138" s="1">
+        <v>-321</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="1">
+        <v>400210024</v>
+      </c>
+      <c r="B139" s="1">
+        <f>A139</f>
+        <v>400210024</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H139" s="1">
+        <v>-320</v>
+      </c>
+      <c r="L139" s="1">
+        <v>-315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="1">
+        <v>400210025</v>
+      </c>
+      <c r="B140" s="1">
+        <f>A140</f>
+        <v>400210025</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H140" s="1">
+        <v>-314</v>
+      </c>
+      <c r="L140" s="1">
+        <v>-256</v>
       </c>
     </row>
   </sheetData>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
@@ -1647,8 +1647,8 @@
   <sheetPr/>
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="J144" sqref="J144"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -3063,18 +3063,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="1">
-        <f t="shared" ref="B102:B114" si="8">A102</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>400110001</v>
       </c>
       <c r="B103" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B102:B114" si="8">A103</f>
         <v>400110001</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -3758,7 +3752,7 @@
         <v>400210024</v>
       </c>
       <c r="B139" s="1">
-        <f>A139</f>
+        <f t="shared" si="9"/>
         <v>400210024</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -3779,7 +3773,7 @@
         <v>400210025</v>
       </c>
       <c r="B140" s="1">
-        <f>A140</f>
+        <f t="shared" si="9"/>
         <v>400210025</v>
       </c>
       <c r="C140" s="1" t="s">

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="680">
   <si>
     <t>@default</t>
   </si>
@@ -472,6 +472,18 @@
     <t>文王</t>
   </si>
   <si>
+    <t>吳太伯</t>
+  </si>
+  <si>
+    <t>仲雍</t>
+  </si>
+  <si>
+    <t>季簡</t>
+  </si>
+  <si>
+    <t>叔達</t>
+  </si>
+  <si>
     <t>姬發</t>
   </si>
   <si>
@@ -689,6 +701,1359 @@
   </si>
   <si>
     <t>赧王</t>
+  </si>
+  <si>
+    <t>秦嬴</t>
+  </si>
+  <si>
+    <t>秦侯</t>
+  </si>
+  <si>
+    <t>公伯</t>
+  </si>
+  <si>
+    <t>秦仲</t>
+  </si>
+  <si>
+    <t>莊公</t>
+  </si>
+  <si>
+    <t>襄公</t>
+  </si>
+  <si>
+    <t>文公</t>
+  </si>
+  <si>
+    <t>寧公</t>
+  </si>
+  <si>
+    <t>出子</t>
+  </si>
+  <si>
+    <t>武公</t>
+  </si>
+  <si>
+    <t>德公</t>
+  </si>
+  <si>
+    <t>宣公</t>
+  </si>
+  <si>
+    <t>成公</t>
+  </si>
+  <si>
+    <t>嬴任好</t>
+  </si>
+  <si>
+    <t>繆公</t>
+  </si>
+  <si>
+    <t>嬴罃</t>
+  </si>
+  <si>
+    <t>康公</t>
+  </si>
+  <si>
+    <t>共公</t>
+  </si>
+  <si>
+    <t>桓公</t>
+  </si>
+  <si>
+    <t>景公</t>
+  </si>
+  <si>
+    <t>哀公</t>
+  </si>
+  <si>
+    <t>惠公</t>
+  </si>
+  <si>
+    <t>悼公</t>
+  </si>
+  <si>
+    <t>厲公</t>
+  </si>
+  <si>
+    <t>躁公</t>
+  </si>
+  <si>
+    <t>懷公</t>
+  </si>
+  <si>
+    <t>靈公</t>
+  </si>
+  <si>
+    <t>嬴悼子</t>
+  </si>
+  <si>
+    <t>簡公</t>
+  </si>
+  <si>
+    <t>獻公</t>
+  </si>
+  <si>
+    <t>孝公</t>
+  </si>
+  <si>
+    <t>惠文君</t>
+  </si>
+  <si>
+    <t>昭襄王</t>
+  </si>
+  <si>
+    <t>孝文王</t>
+  </si>
+  <si>
+    <t>莊襄王</t>
+  </si>
+  <si>
+    <t>周章</t>
+  </si>
+  <si>
+    <t>熊遂</t>
+  </si>
+  <si>
+    <t>柯相</t>
+  </si>
+  <si>
+    <t>彊鳩夷</t>
+  </si>
+  <si>
+    <t>餘橋疑吾</t>
+  </si>
+  <si>
+    <t>柯盧</t>
+  </si>
+  <si>
+    <t>周繇</t>
+  </si>
+  <si>
+    <t>屈羽</t>
+  </si>
+  <si>
+    <t>夷吾</t>
+  </si>
+  <si>
+    <t>禽處</t>
+  </si>
+  <si>
+    <t>轉</t>
+  </si>
+  <si>
+    <t>頗髙</t>
+  </si>
+  <si>
+    <t>句卑</t>
+  </si>
+  <si>
+    <t>去齊</t>
+  </si>
+  <si>
+    <t>夀夢</t>
+  </si>
+  <si>
+    <t>諸樊</t>
+  </si>
+  <si>
+    <t>餘祭</t>
+  </si>
+  <si>
+    <t>餘昧</t>
+  </si>
+  <si>
+    <t>僚</t>
+  </si>
+  <si>
+    <t>闔廬</t>
+  </si>
+  <si>
+    <t>夫差</t>
+  </si>
+  <si>
+    <t>呂尚</t>
+  </si>
+  <si>
+    <t>太公望</t>
+  </si>
+  <si>
+    <t>呂伋</t>
+  </si>
+  <si>
+    <t>丁公</t>
+  </si>
+  <si>
+    <t>德</t>
+  </si>
+  <si>
+    <t>乙公</t>
+  </si>
+  <si>
+    <t>慈母</t>
+  </si>
+  <si>
+    <t>葵公</t>
+  </si>
+  <si>
+    <t>不辰</t>
+  </si>
+  <si>
+    <t>靜</t>
+  </si>
+  <si>
+    <t>胡公</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>壽</t>
+  </si>
+  <si>
+    <t>無忌</t>
+  </si>
+  <si>
+    <t>赤</t>
+  </si>
+  <si>
+    <t>脫</t>
+  </si>
+  <si>
+    <t>購</t>
+  </si>
+  <si>
+    <t>祿甫</t>
+  </si>
+  <si>
+    <t>釐公</t>
+  </si>
+  <si>
+    <t>諸兒</t>
+  </si>
+  <si>
+    <t>無知</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>昭</t>
+  </si>
+  <si>
+    <t>潘</t>
+  </si>
+  <si>
+    <t>昭公</t>
+  </si>
+  <si>
+    <t>商人</t>
+  </si>
+  <si>
+    <t>懿公</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>無野</t>
+  </si>
+  <si>
+    <t>頃公</t>
+  </si>
+  <si>
+    <t>環</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>杵臼</t>
+  </si>
+  <si>
+    <t>茶</t>
+  </si>
+  <si>
+    <t>晏孺子</t>
+  </si>
+  <si>
+    <t>陽生</t>
+  </si>
+  <si>
+    <t>壬</t>
+  </si>
+  <si>
+    <t>驁</t>
+  </si>
+  <si>
+    <t>平公</t>
+  </si>
+  <si>
+    <t>積</t>
+  </si>
+  <si>
+    <t>貨</t>
+  </si>
+  <si>
+    <t>姬旦</t>
+  </si>
+  <si>
+    <t>周公</t>
+  </si>
+  <si>
+    <t>姬伯禽</t>
+  </si>
+  <si>
+    <t>魯公</t>
+  </si>
+  <si>
+    <t>姬酋</t>
+  </si>
+  <si>
+    <t>考公</t>
+  </si>
+  <si>
+    <t>姬熙</t>
+  </si>
+  <si>
+    <t>煬公</t>
+  </si>
+  <si>
+    <t>姬宰</t>
+  </si>
+  <si>
+    <t>幽公</t>
+  </si>
+  <si>
+    <t>姬㵒</t>
+  </si>
+  <si>
+    <t>魏公</t>
+  </si>
+  <si>
+    <t>姬擢</t>
+  </si>
+  <si>
+    <t>姬具</t>
+  </si>
+  <si>
+    <t>姬濞</t>
+  </si>
+  <si>
+    <t>真公</t>
+  </si>
+  <si>
+    <t>姬敖</t>
+  </si>
+  <si>
+    <t>姬戲</t>
+  </si>
+  <si>
+    <t>姬伯御</t>
+  </si>
+  <si>
+    <t>姬稱</t>
+  </si>
+  <si>
+    <t>姬弗湟</t>
+  </si>
+  <si>
+    <t>姬息</t>
+  </si>
+  <si>
+    <t>隱公</t>
+  </si>
+  <si>
+    <t>姬允</t>
+  </si>
+  <si>
+    <t>姬同</t>
+  </si>
+  <si>
+    <t>姬開</t>
+  </si>
+  <si>
+    <t>湣公</t>
+  </si>
+  <si>
+    <t>姬申</t>
+  </si>
+  <si>
+    <t>姬興</t>
+  </si>
+  <si>
+    <t>姬俀</t>
+  </si>
+  <si>
+    <t>姬黑肱</t>
+  </si>
+  <si>
+    <t>姬稠</t>
+  </si>
+  <si>
+    <t>姬宋</t>
+  </si>
+  <si>
+    <t>定公</t>
+  </si>
+  <si>
+    <t>姬將</t>
+  </si>
+  <si>
+    <t>姬寧</t>
+  </si>
+  <si>
+    <t>姬嘉</t>
+  </si>
+  <si>
+    <t>元公</t>
+  </si>
+  <si>
+    <t>姬顯</t>
+  </si>
+  <si>
+    <t>穆公</t>
+  </si>
+  <si>
+    <t>姬奮</t>
+  </si>
+  <si>
+    <t>姬屯</t>
+  </si>
+  <si>
+    <t>姬匽</t>
+  </si>
+  <si>
+    <t>姬賈</t>
+  </si>
+  <si>
+    <t>姬讎</t>
+  </si>
+  <si>
+    <t>姬奭</t>
+  </si>
+  <si>
+    <t>召公</t>
+  </si>
+  <si>
+    <t>惠侯</t>
+  </si>
+  <si>
+    <t>釐侯</t>
+  </si>
+  <si>
+    <t>頃侯</t>
+  </si>
+  <si>
+    <t>哀侯</t>
+  </si>
+  <si>
+    <t>鄭侯</t>
+  </si>
+  <si>
+    <t>繆侯</t>
+  </si>
+  <si>
+    <t>宣侯</t>
+  </si>
+  <si>
+    <t>桓侯</t>
+  </si>
+  <si>
+    <t>易王</t>
+  </si>
+  <si>
+    <t>燕噲</t>
+  </si>
+  <si>
+    <t>姬平</t>
+  </si>
+  <si>
+    <t>武成王</t>
+  </si>
+  <si>
+    <t>管叔鮮</t>
+  </si>
+  <si>
+    <t>蔡叔度</t>
+  </si>
+  <si>
+    <t>蔡仲</t>
+  </si>
+  <si>
+    <t>蔡伯荒</t>
+  </si>
+  <si>
+    <t>宮侯</t>
+  </si>
+  <si>
+    <t>厲侯</t>
+  </si>
+  <si>
+    <t>武侯</t>
+  </si>
+  <si>
+    <t>夷侯</t>
+  </si>
+  <si>
+    <t>姬所事</t>
+  </si>
+  <si>
+    <t>共侯</t>
+  </si>
+  <si>
+    <t>姬</t>
+  </si>
+  <si>
+    <t>戴侯</t>
+  </si>
+  <si>
+    <t>姬措父</t>
+  </si>
+  <si>
+    <t>姬封人</t>
+  </si>
+  <si>
+    <t>姬獻舞</t>
+  </si>
+  <si>
+    <t>姬肸</t>
+  </si>
+  <si>
+    <t>姬甲午</t>
+  </si>
+  <si>
+    <t>莊侯</t>
+  </si>
+  <si>
+    <t>文侯</t>
+  </si>
+  <si>
+    <t>姬固</t>
+  </si>
+  <si>
+    <t>景侯</t>
+  </si>
+  <si>
+    <t>姬般</t>
+  </si>
+  <si>
+    <t>靈侯</t>
+  </si>
+  <si>
+    <t>姬盧</t>
+  </si>
+  <si>
+    <t>平侯</t>
+  </si>
+  <si>
+    <t>姬東國</t>
+  </si>
+  <si>
+    <t>悼侯</t>
+  </si>
+  <si>
+    <t>昭侯</t>
+  </si>
+  <si>
+    <t>姬朔</t>
+  </si>
+  <si>
+    <t>成侯</t>
+  </si>
+  <si>
+    <t>姬產</t>
+  </si>
+  <si>
+    <t>聲侯</t>
+  </si>
+  <si>
+    <t>元侯</t>
+  </si>
+  <si>
+    <t>侯齊</t>
+  </si>
+  <si>
+    <t>媯滿</t>
+  </si>
+  <si>
+    <t>媯犀侯</t>
+  </si>
+  <si>
+    <t>申公</t>
+  </si>
+  <si>
+    <t>媯皋羊</t>
+  </si>
+  <si>
+    <t>相公</t>
+  </si>
+  <si>
+    <t>媯突</t>
+  </si>
+  <si>
+    <t>媯圉戎</t>
+  </si>
+  <si>
+    <t>慎公</t>
+  </si>
+  <si>
+    <t>媯寧</t>
+  </si>
+  <si>
+    <t>媯孝</t>
+  </si>
+  <si>
+    <t>媯靈</t>
+  </si>
+  <si>
+    <t>媯說</t>
+  </si>
+  <si>
+    <t>夷公</t>
+  </si>
+  <si>
+    <t>媯燮</t>
+  </si>
+  <si>
+    <t>媯圉</t>
+  </si>
+  <si>
+    <t>媯鮑</t>
+  </si>
+  <si>
+    <t>媯佗</t>
+  </si>
+  <si>
+    <t>媯躍</t>
+  </si>
+  <si>
+    <t>利公</t>
+  </si>
+  <si>
+    <t>媯林</t>
+  </si>
+  <si>
+    <t>媯杵臼</t>
+  </si>
+  <si>
+    <t>媯款</t>
+  </si>
+  <si>
+    <t>媯朔</t>
+  </si>
+  <si>
+    <t>媯平國</t>
+  </si>
+  <si>
+    <t>媯午</t>
+  </si>
+  <si>
+    <t>媯弱</t>
+  </si>
+  <si>
+    <t>媯吳</t>
+  </si>
+  <si>
+    <t>媯柳</t>
+  </si>
+  <si>
+    <t>媯越</t>
+  </si>
+  <si>
+    <t>東樓公</t>
+  </si>
+  <si>
+    <t>西樓公</t>
+  </si>
+  <si>
+    <t>題公</t>
+  </si>
+  <si>
+    <t>謀娶公</t>
+  </si>
+  <si>
+    <t>靖公</t>
+  </si>
+  <si>
+    <t>姑容</t>
+  </si>
+  <si>
+    <t>匄</t>
+  </si>
+  <si>
+    <t>益姑</t>
+  </si>
+  <si>
+    <t>鬱</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>乞</t>
+  </si>
+  <si>
+    <t>遂</t>
+  </si>
+  <si>
+    <t>維</t>
+  </si>
+  <si>
+    <t>閼路</t>
+  </si>
+  <si>
+    <t>敕</t>
+  </si>
+  <si>
+    <t>出公</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>衛康叔</t>
+  </si>
+  <si>
+    <t>康伯</t>
+  </si>
+  <si>
+    <t>考伯</t>
+  </si>
+  <si>
+    <t>嗣伯</t>
+  </si>
+  <si>
+    <t>摯伯</t>
+  </si>
+  <si>
+    <t>靖伯</t>
+  </si>
+  <si>
+    <t>貞伯</t>
+  </si>
+  <si>
+    <t>姬餘</t>
+  </si>
+  <si>
+    <t>共伯</t>
+  </si>
+  <si>
+    <t>姬和</t>
+  </si>
+  <si>
+    <t>姬揚</t>
+  </si>
+  <si>
+    <t>姬完</t>
+  </si>
+  <si>
+    <t>姬晉</t>
+  </si>
+  <si>
+    <t>姬黔牟</t>
+  </si>
+  <si>
+    <t>姬赤</t>
+  </si>
+  <si>
+    <t>戴公</t>
+  </si>
+  <si>
+    <t>姬燬</t>
+  </si>
+  <si>
+    <t>姬遫</t>
+  </si>
+  <si>
+    <t>姬臧</t>
+  </si>
+  <si>
+    <t>姬衎</t>
+  </si>
+  <si>
+    <t>姬秋</t>
+  </si>
+  <si>
+    <t>殤公</t>
+  </si>
+  <si>
+    <t>姬惡</t>
+  </si>
+  <si>
+    <t>姬元</t>
+  </si>
+  <si>
+    <t>姬辄</t>
+  </si>
+  <si>
+    <t>姬蒯聵</t>
+  </si>
+  <si>
+    <t>姬斑師</t>
+  </si>
+  <si>
+    <t>姬起</t>
+  </si>
+  <si>
+    <t>姬黔</t>
+  </si>
+  <si>
+    <t>姬弗</t>
+  </si>
+  <si>
+    <t>敬公</t>
+  </si>
+  <si>
+    <t>姬糾</t>
+  </si>
+  <si>
+    <t>姬亹</t>
+  </si>
+  <si>
+    <t>姬穨</t>
+  </si>
+  <si>
+    <t>姬訓</t>
+  </si>
+  <si>
+    <t>聲公</t>
+  </si>
+  <si>
+    <t>嗣君</t>
+  </si>
+  <si>
+    <t>懷君</t>
+  </si>
+  <si>
+    <t>元君</t>
+  </si>
+  <si>
+    <t>君角</t>
+  </si>
+  <si>
+    <t>開</t>
+  </si>
+  <si>
+    <t>微子開</t>
+  </si>
+  <si>
+    <t>衍</t>
+  </si>
+  <si>
+    <t>微仲</t>
+  </si>
+  <si>
+    <t>稽</t>
+  </si>
+  <si>
+    <t>宋公</t>
+  </si>
+  <si>
+    <t>申</t>
+  </si>
+  <si>
+    <t>共</t>
+  </si>
+  <si>
+    <t>熙</t>
+  </si>
+  <si>
+    <t>鮒祀</t>
+  </si>
+  <si>
+    <t>舉</t>
+  </si>
+  <si>
+    <t>覵</t>
+  </si>
+  <si>
+    <t>司空</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>與夷</t>
+  </si>
+  <si>
+    <t>馮</t>
+  </si>
+  <si>
+    <t>捷</t>
+  </si>
+  <si>
+    <t>禦説</t>
+  </si>
+  <si>
+    <t>茲甫</t>
+  </si>
+  <si>
+    <t>王成</t>
+  </si>
+  <si>
+    <t>鮑革</t>
+  </si>
+  <si>
+    <t>瑕</t>
+  </si>
+  <si>
+    <t>佐</t>
+  </si>
+  <si>
+    <t>頭曼</t>
+  </si>
+  <si>
+    <t>特</t>
+  </si>
+  <si>
+    <t>購由</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>休公</t>
+  </si>
+  <si>
+    <t>辟兵</t>
+  </si>
+  <si>
+    <t>辟公</t>
+  </si>
+  <si>
+    <t>剔成</t>
+  </si>
+  <si>
+    <t>偃</t>
+  </si>
+  <si>
+    <t>姬虞</t>
+  </si>
+  <si>
+    <t>唐叔虞</t>
+  </si>
+  <si>
+    <t>晉侯</t>
+  </si>
+  <si>
+    <t>姬寧族</t>
+  </si>
+  <si>
+    <t>姬服人</t>
+  </si>
+  <si>
+    <t>姬福</t>
+  </si>
+  <si>
+    <t>靖侯</t>
+  </si>
+  <si>
+    <t>姬司徒</t>
+  </si>
+  <si>
+    <t>姬籍</t>
+  </si>
+  <si>
+    <t>獻侯</t>
+  </si>
+  <si>
+    <t>姬費王</t>
+  </si>
+  <si>
+    <t>穆侯</t>
+  </si>
+  <si>
+    <t>殤叔</t>
+  </si>
+  <si>
+    <t>姬仇</t>
+  </si>
+  <si>
+    <t>姬伯</t>
+  </si>
+  <si>
+    <t>孝侯</t>
+  </si>
+  <si>
+    <t>姬郄</t>
+  </si>
+  <si>
+    <t>鄂侯</t>
+  </si>
+  <si>
+    <t>姬光</t>
+  </si>
+  <si>
+    <t>姬小子</t>
+  </si>
+  <si>
+    <t>小子侯</t>
+  </si>
+  <si>
+    <t>姬緡</t>
+  </si>
+  <si>
+    <t>姬詭諸</t>
+  </si>
+  <si>
+    <t>姬夷吾</t>
+  </si>
+  <si>
+    <t>姬圉</t>
+  </si>
+  <si>
+    <t>姬重耳</t>
+  </si>
+  <si>
+    <t>姬歡</t>
+  </si>
+  <si>
+    <t>姬夷皋</t>
+  </si>
+  <si>
+    <t>姬黑臀</t>
+  </si>
+  <si>
+    <t>姬據</t>
+  </si>
+  <si>
+    <t>姬壽曼</t>
+  </si>
+  <si>
+    <t>姬周</t>
+  </si>
+  <si>
+    <t>姬彪</t>
+  </si>
+  <si>
+    <t>姬鑿</t>
+  </si>
+  <si>
+    <t>姬柳</t>
+  </si>
+  <si>
+    <t>姬止</t>
+  </si>
+  <si>
+    <t>烈公</t>
+  </si>
+  <si>
+    <t>姬頎</t>
+  </si>
+  <si>
+    <t>姬俱酒</t>
+  </si>
+  <si>
+    <t>靜公</t>
+  </si>
+  <si>
+    <t>鬻熊</t>
+  </si>
+  <si>
+    <t>熊麗</t>
+  </si>
+  <si>
+    <t>熊狂</t>
+  </si>
+  <si>
+    <t>熊繹</t>
+  </si>
+  <si>
+    <t>熊艾</t>
+  </si>
+  <si>
+    <t>熊䵣</t>
+  </si>
+  <si>
+    <t>熊勝</t>
+  </si>
+  <si>
+    <t>熊楊</t>
+  </si>
+  <si>
+    <t>熊渠</t>
+  </si>
+  <si>
+    <t>熊摯紅</t>
+  </si>
+  <si>
+    <t>熊延</t>
+  </si>
+  <si>
+    <t>熊勇</t>
+  </si>
+  <si>
+    <t>熊嚴</t>
+  </si>
+  <si>
+    <t>熊霜</t>
+  </si>
+  <si>
+    <t>熊徇</t>
+  </si>
+  <si>
+    <t>熊咢</t>
+  </si>
+  <si>
+    <t>熊儀</t>
+  </si>
+  <si>
+    <t>若敖</t>
+  </si>
+  <si>
+    <t>熊坎</t>
+  </si>
+  <si>
+    <t>霄敖</t>
+  </si>
+  <si>
+    <t>熊眴</t>
+  </si>
+  <si>
+    <t>昐冒</t>
+  </si>
+  <si>
+    <t>熊通</t>
+  </si>
+  <si>
+    <t>熊貲</t>
+  </si>
+  <si>
+    <t>熊囏</t>
+  </si>
+  <si>
+    <t>莊敖</t>
+  </si>
+  <si>
+    <t>熊惲</t>
+  </si>
+  <si>
+    <t>商臣</t>
+  </si>
+  <si>
+    <t>侶</t>
+  </si>
+  <si>
+    <t>審</t>
+  </si>
+  <si>
+    <t>招</t>
+  </si>
+  <si>
+    <t>員</t>
+  </si>
+  <si>
+    <t>郟敖</t>
+  </si>
+  <si>
+    <t>圍</t>
+  </si>
+  <si>
+    <t>弃疾</t>
+  </si>
+  <si>
+    <t>珍</t>
+  </si>
+  <si>
+    <t>章</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>當</t>
+  </si>
+  <si>
+    <t>聲王</t>
+  </si>
+  <si>
+    <t>熊疑</t>
+  </si>
+  <si>
+    <t>臧</t>
+  </si>
+  <si>
+    <t>肅王</t>
+  </si>
+  <si>
+    <t>熊良夫</t>
+  </si>
+  <si>
+    <t>熊商</t>
+  </si>
+  <si>
+    <t>威王</t>
+  </si>
+  <si>
+    <t>熊槐</t>
+  </si>
+  <si>
+    <t>懷王</t>
+  </si>
+  <si>
+    <t>橫</t>
+  </si>
+  <si>
+    <t>頃襄王</t>
+  </si>
+  <si>
+    <t>熊元</t>
+  </si>
+  <si>
+    <t>考烈王</t>
+  </si>
+  <si>
+    <t>悍</t>
+  </si>
+  <si>
+    <t>猶</t>
+  </si>
+  <si>
+    <t>負芻</t>
+  </si>
+  <si>
+    <t>允常</t>
+  </si>
+  <si>
+    <t>句踐</t>
+  </si>
+  <si>
+    <t>鼫與</t>
+  </si>
+  <si>
+    <t>不壽</t>
+  </si>
+  <si>
+    <t>翁</t>
+  </si>
+  <si>
+    <t>翳</t>
+  </si>
+  <si>
+    <t>之侯</t>
+  </si>
+  <si>
+    <t>無彊</t>
+  </si>
+  <si>
+    <t>姬友</t>
+  </si>
+  <si>
+    <t>姬掘突</t>
+  </si>
+  <si>
+    <t>姬寤生</t>
+  </si>
+  <si>
+    <t>姬忽</t>
+  </si>
+  <si>
+    <t>姬突</t>
+  </si>
+  <si>
+    <t>姬子亹</t>
+  </si>
+  <si>
+    <t>姬子嬰</t>
+  </si>
+  <si>
+    <t>姬踕</t>
+  </si>
+  <si>
+    <t>姬子蘭</t>
+  </si>
+  <si>
+    <t>姬子夷</t>
+  </si>
+  <si>
+    <t>姬子堅</t>
+  </si>
+  <si>
+    <t>姬睔</t>
+  </si>
+  <si>
+    <t>姬惲</t>
+  </si>
+  <si>
+    <t>姬蠆</t>
+  </si>
+  <si>
+    <t>姬勝</t>
+  </si>
+  <si>
+    <t>姬易</t>
+  </si>
+  <si>
+    <t>姬丑</t>
+  </si>
+  <si>
+    <t>姬已</t>
+  </si>
+  <si>
+    <t>姬駘</t>
+  </si>
+  <si>
+    <t>繻公</t>
+  </si>
+  <si>
+    <t>姬乙</t>
+  </si>
+  <si>
+    <t>嬴政</t>
+  </si>
+  <si>
+    <t>始皇帝</t>
+  </si>
+  <si>
+    <t>嬴胡亥</t>
+  </si>
+  <si>
+    <t>二世</t>
+  </si>
+  <si>
+    <t>項籍</t>
+  </si>
+  <si>
+    <t>西楚霸王</t>
+  </si>
+  <si>
+    <t>劉邦</t>
+  </si>
+  <si>
+    <t>高祖</t>
+  </si>
+  <si>
+    <t>劉盈</t>
+  </si>
+  <si>
+    <t>孝惠帝</t>
+  </si>
+  <si>
+    <t>呂雉</t>
+  </si>
+  <si>
+    <t>呂太后</t>
+  </si>
+  <si>
+    <t>劉恒</t>
+  </si>
+  <si>
+    <t>孝文帝</t>
+  </si>
+  <si>
+    <t>劉啟</t>
+  </si>
+  <si>
+    <t>孝景帝</t>
+  </si>
+  <si>
+    <t>劉徹</t>
+  </si>
+  <si>
+    <t>孝武帝</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +2681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1324,6 +2689,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1645,10 +3013,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X140"/>
+  <dimension ref="A1:X585"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A555" workbookViewId="0">
+      <selection activeCell="C573" sqref="C573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -3063,730 +4431,6996 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="102" spans="3:3">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
+        <v>300310001</v>
+      </c>
+      <c r="B103" s="1">
+        <f>A103</f>
+        <v>300310001</v>
+      </c>
+      <c r="C103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>300310002</v>
+      </c>
+      <c r="B104" s="1">
+        <f>A104</f>
+        <v>300310002</v>
+      </c>
+      <c r="C104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>300310003</v>
+      </c>
+      <c r="B105" s="1">
+        <f>A105</f>
+        <v>300310003</v>
+      </c>
+      <c r="C105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>300310004</v>
+      </c>
+      <c r="B106" s="1">
+        <f>A106</f>
+        <v>300310004</v>
+      </c>
+      <c r="C106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
         <v>400110001</v>
       </c>
-      <c r="B103" s="1">
-        <f t="shared" ref="B102:B114" si="8">A103</f>
+      <c r="B108" s="1">
+        <f t="shared" ref="B107:B119" si="8">A108</f>
         <v>400110001</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1">
+      <c r="C108" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
         <v>400110002</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B109" s="1">
         <f t="shared" si="8"/>
         <v>400110002</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1">
+      <c r="C109" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
         <v>400110003</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B110" s="1">
         <f t="shared" si="8"/>
         <v>400110003</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1">
+      <c r="C110" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
         <v>400110004</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B111" s="1">
         <f t="shared" si="8"/>
         <v>400110004</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1">
+      <c r="C111" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
         <v>400110005</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B112" s="1">
         <f t="shared" si="8"/>
         <v>400110005</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1">
+      <c r="C112" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
         <v>400110006</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B113" s="1">
         <f t="shared" si="8"/>
         <v>400110006</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1">
+      <c r="C113" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
         <v>400110007</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B114" s="1">
         <f t="shared" si="8"/>
         <v>400110007</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1">
+      <c r="C114" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
         <v>400110008</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B115" s="1">
         <f t="shared" si="8"/>
         <v>400110008</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1">
+      <c r="C115" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
         <v>400110009</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B116" s="1">
         <f t="shared" si="8"/>
         <v>400110009</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" s="1">
+      <c r="C116" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1">
         <v>400110010</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B117" s="1">
         <f t="shared" si="8"/>
         <v>400110010</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L112" s="1">
+      <c r="C117" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L117" s="1">
         <v>-841</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="1">
+    <row r="118" spans="1:12">
+      <c r="A118" s="1">
         <v>400110011</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B118" s="1">
         <f t="shared" si="8"/>
         <v>400110011</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H113" s="1">
+      <c r="C118" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H118" s="1">
         <v>-827</v>
       </c>
-      <c r="L113" s="1">
+      <c r="L118" s="1">
         <v>-782</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="1">
+    <row r="119" spans="1:12">
+      <c r="A119" s="1">
         <v>400110012</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B119" s="1">
         <f t="shared" si="8"/>
         <v>400110012</v>
       </c>
-      <c r="C114" t="s">
-        <v>174</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H114" s="1">
+      <c r="C119" t="s">
+        <v>178</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H119" s="1">
         <v>-781</v>
       </c>
-      <c r="L114" s="1">
+      <c r="L119" s="1">
         <v>-771</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
-      <c r="A116" s="1">
+    <row r="121" spans="1:12">
+      <c r="A121" s="1">
         <v>400210001</v>
       </c>
-      <c r="B116" s="1">
-        <f t="shared" ref="B115:B151" si="9">A116</f>
+      <c r="B121" s="1">
+        <f t="shared" ref="B120:B156" si="9">A121</f>
         <v>400210001</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H116" s="1">
+      <c r="C121" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H121" s="1">
         <v>-770</v>
       </c>
-      <c r="L116" s="1">
+      <c r="L121" s="1">
         <v>-720</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
-      <c r="A117" s="1">
+    <row r="122" spans="1:12">
+      <c r="A122" s="1">
         <v>400210002</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B122" s="1">
         <f t="shared" si="9"/>
         <v>400210002</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H117" s="1">
+      <c r="C122" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H122" s="1">
         <v>-719</v>
       </c>
-      <c r="L117" s="1">
+      <c r="L122" s="1">
         <v>-697</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="1">
+    <row r="123" spans="1:12">
+      <c r="A123" s="1">
         <v>400210003</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B123" s="1">
         <f t="shared" si="9"/>
         <v>400210003</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H118" s="1">
+      <c r="C123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H123" s="1">
         <v>-696</v>
       </c>
-      <c r="L118" s="1">
+      <c r="L123" s="1">
         <v>-682</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
-      <c r="A119" s="1">
+    <row r="124" spans="1:12">
+      <c r="A124" s="1">
         <v>400210004</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B124" s="1">
         <f t="shared" si="9"/>
         <v>400210004</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H119" s="1">
+      <c r="C124" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H124" s="1">
         <v>-681</v>
       </c>
-      <c r="L119" s="1">
+      <c r="L124" s="1">
         <v>-677</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
-      <c r="A120" s="1">
+    <row r="125" spans="1:12">
+      <c r="A125" s="1">
         <v>400210005</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B125" s="1">
         <f t="shared" si="9"/>
         <v>400210005</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H120" s="1">
+      <c r="C125" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H125" s="1">
         <v>-676</v>
       </c>
-      <c r="L120" s="1">
+      <c r="L125" s="1">
         <v>-652</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
-      <c r="A121" s="1">
+    <row r="126" spans="1:12">
+      <c r="A126" s="1">
         <v>400210006</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B126" s="1">
         <f t="shared" si="9"/>
         <v>400210006</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H121" s="1">
+      <c r="C126" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H126" s="1">
         <v>-651</v>
       </c>
-      <c r="L121" s="1">
+      <c r="L126" s="1">
         <v>-619</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
-      <c r="A122" s="1">
+    <row r="127" spans="1:12">
+      <c r="A127" s="1">
         <v>400210007</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B127" s="1">
         <f t="shared" si="9"/>
         <v>400210007</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H122" s="1">
+      <c r="C127" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H127" s="1">
         <v>-618</v>
       </c>
-      <c r="L122" s="1">
+      <c r="L127" s="1">
         <v>-613</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
-      <c r="A123" s="1">
+    <row r="128" spans="1:12">
+      <c r="A128" s="1">
         <v>400210008</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B128" s="1">
         <f t="shared" si="9"/>
         <v>400210008</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H123" s="1">
+      <c r="C128" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H128" s="1">
         <v>-612</v>
       </c>
-      <c r="L123" s="1">
+      <c r="L128" s="1">
         <v>-607</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
-      <c r="A124" s="1">
+    <row r="129" spans="1:12">
+      <c r="A129" s="1">
         <v>400210009</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B129" s="1">
         <f t="shared" si="9"/>
         <v>400210009</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H124" s="1">
+      <c r="C129" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H129" s="1">
         <v>-606</v>
       </c>
-      <c r="L124" s="1">
+      <c r="L129" s="1">
         <v>-586</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="1">
+    <row r="130" spans="1:12">
+      <c r="A130" s="1">
         <v>400210010</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B130" s="1">
         <f t="shared" si="9"/>
         <v>400210010</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H125" s="1">
+      <c r="C130" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H130" s="1">
         <v>-585</v>
       </c>
-      <c r="L125" s="1">
+      <c r="L130" s="1">
         <v>-572</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
-      <c r="A126" s="1">
+    <row r="131" spans="1:12">
+      <c r="A131" s="1">
         <v>400210011</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B131" s="1">
         <f t="shared" si="9"/>
         <v>400210011</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H126" s="1">
+      <c r="C131" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H131" s="1">
         <v>-571</v>
       </c>
-      <c r="L126" s="1">
+      <c r="L131" s="1">
         <v>-545</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
-      <c r="A127" s="1">
+    <row r="132" spans="1:12">
+      <c r="A132" s="1">
         <v>400210012</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B132" s="1">
         <f t="shared" si="9"/>
         <v>400210012</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H127" s="1">
+      <c r="C132" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H132" s="1">
         <v>-544</v>
       </c>
-      <c r="L127" s="1">
+      <c r="L132" s="1">
         <v>-520</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="1">
+    <row r="133" spans="1:12">
+      <c r="A133" s="1">
         <v>400210013</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B133" s="1">
         <f t="shared" si="9"/>
         <v>400210013</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H128" s="1">
+      <c r="C133" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H133" s="1">
         <v>-520</v>
       </c>
-      <c r="L128" s="1">
+      <c r="L133" s="1">
         <v>-520</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
-      <c r="A129" s="1">
+    <row r="134" spans="1:24">
+      <c r="A134" s="1">
         <v>400210014</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B134" s="1">
         <f t="shared" si="9"/>
         <v>400210014</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H129" s="1">
+      <c r="C134" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H134" s="1">
         <v>-519</v>
       </c>
-      <c r="L129" s="1">
+      <c r="L134" s="1">
         <v>-476</v>
       </c>
-      <c r="X129" s="1" t="s">
+      <c r="X134" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:24">
-      <c r="A130" s="1">
+    <row r="135" spans="1:24">
+      <c r="A135" s="1">
         <v>400210015</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B135" s="1">
         <f t="shared" si="9"/>
         <v>400210015</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H130" s="1">
+      <c r="C135" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H135" s="1">
         <v>-475</v>
       </c>
-      <c r="L130" s="1">
+      <c r="L135" s="1">
         <v>-469</v>
       </c>
-      <c r="X130" s="1" t="s">
+      <c r="X135" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="1">
+    <row r="136" spans="1:12">
+      <c r="A136" s="1">
         <v>400210016</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B136" s="1">
         <f t="shared" si="9"/>
         <v>400210016</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H131" s="1">
+      <c r="C136" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H136" s="1">
         <v>-468</v>
       </c>
-      <c r="L131" s="1">
+      <c r="L136" s="1">
         <v>-441</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="1">
+    <row r="137" spans="1:12">
+      <c r="A137" s="1">
         <v>400210017</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B137" s="1">
         <f t="shared" si="9"/>
         <v>400210017</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H132" s="1">
+      <c r="C137" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H137" s="1">
         <v>-441</v>
       </c>
-      <c r="L132" s="1">
+      <c r="L137" s="1">
         <v>-441</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="1">
+    <row r="138" spans="1:12">
+      <c r="A138" s="1">
         <v>400210018</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B138" s="1">
         <f t="shared" si="9"/>
         <v>400210018</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H133" s="1">
+      <c r="C138" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H138" s="1">
         <v>-441</v>
       </c>
-      <c r="L133" s="1">
+      <c r="L138" s="1">
         <v>-441</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="1">
+    <row r="139" spans="1:12">
+      <c r="A139" s="1">
         <v>400210019</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B139" s="1">
         <f t="shared" si="9"/>
         <v>400210019</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H134" s="1">
+      <c r="C139" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H139" s="1">
         <v>-440</v>
       </c>
-      <c r="L134" s="1">
+      <c r="L139" s="1">
         <v>-426</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="1">
+    <row r="140" spans="1:12">
+      <c r="A140" s="1">
         <v>400210020</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B140" s="1">
         <f t="shared" si="9"/>
         <v>400210020</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H135" s="1">
+      <c r="C140" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H140" s="1">
         <v>-425</v>
       </c>
-      <c r="L135" s="1">
+      <c r="L140" s="1">
         <v>-402</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="1">
+    <row r="141" spans="1:12">
+      <c r="A141" s="1">
         <v>400210021</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B141" s="1">
         <f t="shared" si="9"/>
         <v>400210021</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H136" s="1">
+      <c r="C141" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H141" s="1">
         <v>-401</v>
       </c>
-      <c r="L136" s="1">
+      <c r="L141" s="1">
         <v>-376</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="1">
+    <row r="142" spans="1:12">
+      <c r="A142" s="1">
         <v>400210022</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B142" s="1">
         <f t="shared" si="9"/>
         <v>400210022</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H137" s="1">
+      <c r="C142" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H142" s="1">
         <v>-375</v>
       </c>
-      <c r="L137" s="1">
+      <c r="L142" s="1">
         <v>-369</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="1">
+    <row r="143" spans="1:12">
+      <c r="A143" s="1">
         <v>400210023</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B143" s="1">
         <f t="shared" si="9"/>
         <v>400210023</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H138" s="1">
+      <c r="C143" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H143" s="1">
         <v>-368</v>
       </c>
-      <c r="L138" s="1">
+      <c r="L143" s="1">
         <v>-321</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="1">
+    <row r="144" spans="1:12">
+      <c r="A144" s="1">
         <v>400210024</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B144" s="1">
         <f t="shared" si="9"/>
         <v>400210024</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H139" s="1">
+      <c r="C144" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H144" s="1">
         <v>-320</v>
       </c>
-      <c r="L139" s="1">
+      <c r="L144" s="1">
         <v>-315</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="1">
+    <row r="145" spans="1:12">
+      <c r="A145" s="1">
         <v>400210025</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B145" s="1">
         <f t="shared" si="9"/>
         <v>400210025</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H140" s="1">
+      <c r="C145" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H145" s="1">
         <v>-314</v>
       </c>
-      <c r="L140" s="1">
+      <c r="L145" s="1">
         <v>-256</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>400310001</v>
+      </c>
+      <c r="B147" s="1">
+        <f>A147</f>
+        <v>400310001</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>400310002</v>
+      </c>
+      <c r="B148" s="1">
+        <f t="shared" ref="B148:B182" si="10">A148</f>
+        <v>400310002</v>
+      </c>
+      <c r="C148" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>400310003</v>
+      </c>
+      <c r="B149" s="1">
+        <f t="shared" si="10"/>
+        <v>400310003</v>
+      </c>
+      <c r="C149" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>400310004</v>
+      </c>
+      <c r="B150" s="1">
+        <f t="shared" si="10"/>
+        <v>400310004</v>
+      </c>
+      <c r="C150" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>400310005</v>
+      </c>
+      <c r="B151" s="1">
+        <f t="shared" si="10"/>
+        <v>400310005</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>400310006</v>
+      </c>
+      <c r="B152" s="1">
+        <f t="shared" si="10"/>
+        <v>400310006</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>400310007</v>
+      </c>
+      <c r="B153" s="1">
+        <f t="shared" si="10"/>
+        <v>400310007</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>400310008</v>
+      </c>
+      <c r="B154" s="1">
+        <f t="shared" si="10"/>
+        <v>400310008</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>400310009</v>
+      </c>
+      <c r="B155" s="1">
+        <f t="shared" si="10"/>
+        <v>400310009</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>400310010</v>
+      </c>
+      <c r="B156" s="1">
+        <f t="shared" si="10"/>
+        <v>400310010</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>400310011</v>
+      </c>
+      <c r="B157" s="1">
+        <f t="shared" si="10"/>
+        <v>400310011</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>400310012</v>
+      </c>
+      <c r="B158" s="1">
+        <f t="shared" si="10"/>
+        <v>400310012</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>400310013</v>
+      </c>
+      <c r="B159" s="1">
+        <f t="shared" si="10"/>
+        <v>400310013</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>400310014</v>
+      </c>
+      <c r="B160" s="1">
+        <f t="shared" si="10"/>
+        <v>400310014</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>400310015</v>
+      </c>
+      <c r="B161" s="1">
+        <f t="shared" si="10"/>
+        <v>400310015</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>400310016</v>
+      </c>
+      <c r="B162" s="1">
+        <f t="shared" si="10"/>
+        <v>400310016</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>400310017</v>
+      </c>
+      <c r="B163" s="1">
+        <f t="shared" si="10"/>
+        <v>400310017</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>400310018</v>
+      </c>
+      <c r="B164" s="1">
+        <f t="shared" si="10"/>
+        <v>400310018</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>400310019</v>
+      </c>
+      <c r="B165" s="1">
+        <f t="shared" si="10"/>
+        <v>400310019</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>400310020</v>
+      </c>
+      <c r="B166" s="1">
+        <f t="shared" si="10"/>
+        <v>400310020</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>400310021</v>
+      </c>
+      <c r="B167" s="1">
+        <f t="shared" si="10"/>
+        <v>400310021</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>400310022</v>
+      </c>
+      <c r="B168" s="1">
+        <f t="shared" si="10"/>
+        <v>400310022</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>400310023</v>
+      </c>
+      <c r="B169" s="1">
+        <f t="shared" si="10"/>
+        <v>400310023</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>400310024</v>
+      </c>
+      <c r="B170" s="1">
+        <f t="shared" si="10"/>
+        <v>400310024</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>400310025</v>
+      </c>
+      <c r="B171" s="1">
+        <f t="shared" si="10"/>
+        <v>400310025</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>400310026</v>
+      </c>
+      <c r="B172" s="1">
+        <f t="shared" si="10"/>
+        <v>400310026</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>400310027</v>
+      </c>
+      <c r="B173" s="1">
+        <f t="shared" si="10"/>
+        <v>400310027</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>400310028</v>
+      </c>
+      <c r="B174" s="1">
+        <f t="shared" si="10"/>
+        <v>400310028</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>400310029</v>
+      </c>
+      <c r="B175" s="1">
+        <f t="shared" si="10"/>
+        <v>400310029</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>400310030</v>
+      </c>
+      <c r="B176" s="1">
+        <f t="shared" si="10"/>
+        <v>400310030</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>400310031</v>
+      </c>
+      <c r="B177" s="1">
+        <f t="shared" si="10"/>
+        <v>400310031</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>400310032</v>
+      </c>
+      <c r="B178" s="1">
+        <f t="shared" si="10"/>
+        <v>400310032</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>400310033</v>
+      </c>
+      <c r="B179" s="1">
+        <f t="shared" si="10"/>
+        <v>400310033</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>400310034</v>
+      </c>
+      <c r="B180" s="1">
+        <f t="shared" si="10"/>
+        <v>400310034</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>400310035</v>
+      </c>
+      <c r="B181" s="1">
+        <f t="shared" si="10"/>
+        <v>400310035</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>400410001</v>
+      </c>
+      <c r="B183" s="1">
+        <f>A183</f>
+        <v>400410001</v>
+      </c>
+      <c r="C183" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>400410002</v>
+      </c>
+      <c r="B184" s="1">
+        <f>A184</f>
+        <v>400410002</v>
+      </c>
+      <c r="C184" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>400410003</v>
+      </c>
+      <c r="B185" s="1">
+        <f>A185</f>
+        <v>400410003</v>
+      </c>
+      <c r="C185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>400410004</v>
+      </c>
+      <c r="B186" s="1">
+        <f>A186</f>
+        <v>400410004</v>
+      </c>
+      <c r="C186" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>400410005</v>
+      </c>
+      <c r="B187" s="1">
+        <f t="shared" ref="B187:B203" si="11">A187</f>
+        <v>400410005</v>
+      </c>
+      <c r="C187" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>400410006</v>
+      </c>
+      <c r="B188" s="1">
+        <f t="shared" si="11"/>
+        <v>400410006</v>
+      </c>
+      <c r="C188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>400410007</v>
+      </c>
+      <c r="B189" s="1">
+        <f t="shared" si="11"/>
+        <v>400410007</v>
+      </c>
+      <c r="C189" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>400410008</v>
+      </c>
+      <c r="B190" s="1">
+        <f t="shared" si="11"/>
+        <v>400410008</v>
+      </c>
+      <c r="C190" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>400410009</v>
+      </c>
+      <c r="B191" s="1">
+        <f t="shared" si="11"/>
+        <v>400410009</v>
+      </c>
+      <c r="C191" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>400410010</v>
+      </c>
+      <c r="B192" s="1">
+        <f t="shared" si="11"/>
+        <v>400410010</v>
+      </c>
+      <c r="C192" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>400410011</v>
+      </c>
+      <c r="B193" s="1">
+        <f t="shared" si="11"/>
+        <v>400410011</v>
+      </c>
+      <c r="C193" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>400410012</v>
+      </c>
+      <c r="B194" s="1">
+        <f t="shared" si="11"/>
+        <v>400410012</v>
+      </c>
+      <c r="C194" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>400410013</v>
+      </c>
+      <c r="B195" s="1">
+        <f t="shared" si="11"/>
+        <v>400410013</v>
+      </c>
+      <c r="C195" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>400410014</v>
+      </c>
+      <c r="B196" s="1">
+        <f t="shared" si="11"/>
+        <v>400410014</v>
+      </c>
+      <c r="C196" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>400410015</v>
+      </c>
+      <c r="B197" s="1">
+        <f t="shared" si="11"/>
+        <v>400410015</v>
+      </c>
+      <c r="C197" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>400410016</v>
+      </c>
+      <c r="B198" s="1">
+        <f t="shared" si="11"/>
+        <v>400410016</v>
+      </c>
+      <c r="C198" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>400410017</v>
+      </c>
+      <c r="B199" s="1">
+        <f t="shared" si="11"/>
+        <v>400410017</v>
+      </c>
+      <c r="C199" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>400410018</v>
+      </c>
+      <c r="B200" s="1">
+        <f t="shared" si="11"/>
+        <v>400410018</v>
+      </c>
+      <c r="C200" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>400410019</v>
+      </c>
+      <c r="B201" s="1">
+        <f t="shared" si="11"/>
+        <v>400410019</v>
+      </c>
+      <c r="C201" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>400410020</v>
+      </c>
+      <c r="B202" s="1">
+        <f t="shared" si="11"/>
+        <v>400410020</v>
+      </c>
+      <c r="C202" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>400410021</v>
+      </c>
+      <c r="B203" s="1">
+        <f t="shared" si="11"/>
+        <v>400410021</v>
+      </c>
+      <c r="C203" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204"/>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>400510001</v>
+      </c>
+      <c r="B205" s="1">
+        <f>A205</f>
+        <v>400510001</v>
+      </c>
+      <c r="C205" t="s">
+        <v>285</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>400510002</v>
+      </c>
+      <c r="B206" s="1">
+        <f t="shared" ref="B206:B214" si="12">A206</f>
+        <v>400510002</v>
+      </c>
+      <c r="C206" t="s">
+        <v>287</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>400510003</v>
+      </c>
+      <c r="B207" s="1">
+        <f t="shared" si="12"/>
+        <v>400510003</v>
+      </c>
+      <c r="C207" t="s">
+        <v>289</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>400510004</v>
+      </c>
+      <c r="B208" s="1">
+        <f t="shared" si="12"/>
+        <v>400510004</v>
+      </c>
+      <c r="C208" t="s">
+        <v>291</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>400510005</v>
+      </c>
+      <c r="B209" s="1">
+        <f t="shared" si="12"/>
+        <v>400510005</v>
+      </c>
+      <c r="C209" t="s">
+        <v>293</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>400510006</v>
+      </c>
+      <c r="B210" s="1">
+        <f t="shared" si="12"/>
+        <v>400510006</v>
+      </c>
+      <c r="C210" t="s">
+        <v>294</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>400510007</v>
+      </c>
+      <c r="B211" s="1">
+        <f t="shared" si="12"/>
+        <v>400510007</v>
+      </c>
+      <c r="C211" t="s">
+        <v>296</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>400510008</v>
+      </c>
+      <c r="B212" s="1">
+        <f t="shared" si="12"/>
+        <v>400510008</v>
+      </c>
+      <c r="C212" t="s">
+        <v>297</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>400510009</v>
+      </c>
+      <c r="B213" s="1">
+        <f t="shared" si="12"/>
+        <v>400510009</v>
+      </c>
+      <c r="C213" t="s">
+        <v>298</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>400510010</v>
+      </c>
+      <c r="B214" s="1">
+        <f t="shared" si="12"/>
+        <v>400510010</v>
+      </c>
+      <c r="C214" t="s">
+        <v>299</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>400510011</v>
+      </c>
+      <c r="B215" s="1">
+        <f t="shared" ref="B215:B224" si="13">A215</f>
+        <v>400510011</v>
+      </c>
+      <c r="C215" t="s">
+        <v>300</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>400510012</v>
+      </c>
+      <c r="B216" s="1">
+        <f t="shared" si="13"/>
+        <v>400510012</v>
+      </c>
+      <c r="C216" t="s">
+        <v>301</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>400510013</v>
+      </c>
+      <c r="B217" s="1">
+        <f t="shared" si="13"/>
+        <v>400510013</v>
+      </c>
+      <c r="C217" t="s">
+        <v>302</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>400510014</v>
+      </c>
+      <c r="B218" s="1">
+        <f t="shared" si="13"/>
+        <v>400510014</v>
+      </c>
+      <c r="C218" t="s">
+        <v>304</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>400510015</v>
+      </c>
+      <c r="B219" s="1">
+        <f t="shared" si="13"/>
+        <v>400510015</v>
+      </c>
+      <c r="C219" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>400510016</v>
+      </c>
+      <c r="B220" s="1">
+        <f t="shared" si="13"/>
+        <v>400510016</v>
+      </c>
+      <c r="C220" t="s">
+        <v>306</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>400510017</v>
+      </c>
+      <c r="B221" s="1">
+        <f t="shared" si="13"/>
+        <v>400510017</v>
+      </c>
+      <c r="C221" t="s">
+        <v>307</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>400510018</v>
+      </c>
+      <c r="B222" s="1">
+        <f t="shared" si="13"/>
+        <v>400510018</v>
+      </c>
+      <c r="C222" t="s">
+        <v>308</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>400510019</v>
+      </c>
+      <c r="B223" s="1">
+        <f t="shared" si="13"/>
+        <v>400510019</v>
+      </c>
+      <c r="C223" t="s">
+        <v>310</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>400510020</v>
+      </c>
+      <c r="B224" s="1">
+        <f t="shared" si="13"/>
+        <v>400510020</v>
+      </c>
+      <c r="C224" t="s">
+        <v>312</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>400510021</v>
+      </c>
+      <c r="B225" s="1">
+        <f t="shared" ref="B225:B234" si="14">A225</f>
+        <v>400510021</v>
+      </c>
+      <c r="C225" t="s">
+        <v>313</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>400510022</v>
+      </c>
+      <c r="B226" s="1">
+        <f t="shared" si="14"/>
+        <v>400510022</v>
+      </c>
+      <c r="C226" t="s">
+        <v>315</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>400510023</v>
+      </c>
+      <c r="B227" s="1">
+        <f t="shared" si="14"/>
+        <v>400510023</v>
+      </c>
+      <c r="C227" t="s">
+        <v>316</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>400510024</v>
+      </c>
+      <c r="B228" s="1">
+        <f t="shared" si="14"/>
+        <v>400510024</v>
+      </c>
+      <c r="C228" t="s">
+        <v>317</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>400510025</v>
+      </c>
+      <c r="B229" s="1">
+        <f t="shared" si="14"/>
+        <v>400510025</v>
+      </c>
+      <c r="C229" t="s">
+        <v>318</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>400510026</v>
+      </c>
+      <c r="B230" s="1">
+        <f t="shared" si="14"/>
+        <v>400510026</v>
+      </c>
+      <c r="C230" t="s">
+        <v>320</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>400510027</v>
+      </c>
+      <c r="B231" s="1">
+        <f t="shared" si="14"/>
+        <v>400510027</v>
+      </c>
+      <c r="C231" t="s">
+        <v>321</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>400510028</v>
+      </c>
+      <c r="B232" s="1">
+        <f t="shared" si="14"/>
+        <v>400510028</v>
+      </c>
+      <c r="C232" t="s">
+        <v>322</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>400510029</v>
+      </c>
+      <c r="B233" s="1">
+        <f t="shared" si="14"/>
+        <v>400510029</v>
+      </c>
+      <c r="C233" t="s">
+        <v>324</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>400510030</v>
+      </c>
+      <c r="B234" s="1">
+        <f t="shared" si="14"/>
+        <v>400510030</v>
+      </c>
+      <c r="C234" t="s">
+        <v>325</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>400610001</v>
+      </c>
+      <c r="B236" s="1">
+        <f>A236</f>
+        <v>400610001</v>
+      </c>
+      <c r="C236" t="s">
+        <v>326</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>400610002</v>
+      </c>
+      <c r="B237" s="1">
+        <f t="shared" ref="B237:B264" si="15">A237</f>
+        <v>400610002</v>
+      </c>
+      <c r="C237" t="s">
+        <v>328</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>400610003</v>
+      </c>
+      <c r="B238" s="1">
+        <f t="shared" si="15"/>
+        <v>400610003</v>
+      </c>
+      <c r="C238" t="s">
+        <v>330</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>400610004</v>
+      </c>
+      <c r="B239" s="1">
+        <f t="shared" si="15"/>
+        <v>400610004</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>400610005</v>
+      </c>
+      <c r="B240" s="1">
+        <f t="shared" si="15"/>
+        <v>400610005</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>400610006</v>
+      </c>
+      <c r="B241" s="1">
+        <f t="shared" si="15"/>
+        <v>400610006</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>400610007</v>
+      </c>
+      <c r="B242" s="1">
+        <f t="shared" si="15"/>
+        <v>400610007</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>400610008</v>
+      </c>
+      <c r="B243" s="1">
+        <f t="shared" si="15"/>
+        <v>400610008</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>400610009</v>
+      </c>
+      <c r="B244" s="1">
+        <f t="shared" si="15"/>
+        <v>400610009</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>400610010</v>
+      </c>
+      <c r="B245" s="1">
+        <f t="shared" si="15"/>
+        <v>400610010</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>400610011</v>
+      </c>
+      <c r="B246" s="1">
+        <f t="shared" si="15"/>
+        <v>400610011</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>400610012</v>
+      </c>
+      <c r="B247" s="1">
+        <f t="shared" si="15"/>
+        <v>400610012</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>400610013</v>
+      </c>
+      <c r="B248" s="1">
+        <f t="shared" si="15"/>
+        <v>400610013</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>400610014</v>
+      </c>
+      <c r="B249" s="1">
+        <f t="shared" si="15"/>
+        <v>400610014</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>400610015</v>
+      </c>
+      <c r="B250" s="1">
+        <f t="shared" si="15"/>
+        <v>400610015</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>400610016</v>
+      </c>
+      <c r="B251" s="1">
+        <f t="shared" si="15"/>
+        <v>400610016</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>400610017</v>
+      </c>
+      <c r="B252" s="1">
+        <f t="shared" si="15"/>
+        <v>400610017</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>400610018</v>
+      </c>
+      <c r="B253" s="1">
+        <f t="shared" si="15"/>
+        <v>400610018</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>400610019</v>
+      </c>
+      <c r="B254" s="1">
+        <f t="shared" si="15"/>
+        <v>400610019</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>400610020</v>
+      </c>
+      <c r="B255" s="1">
+        <f t="shared" si="15"/>
+        <v>400610020</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>400610021</v>
+      </c>
+      <c r="B256" s="1">
+        <f t="shared" si="15"/>
+        <v>400610021</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>400610022</v>
+      </c>
+      <c r="B257" s="1">
+        <f t="shared" si="15"/>
+        <v>400610022</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>400610023</v>
+      </c>
+      <c r="B258" s="1">
+        <f t="shared" si="15"/>
+        <v>400610023</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>400610024</v>
+      </c>
+      <c r="B259" s="1">
+        <f t="shared" si="15"/>
+        <v>400610024</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>400610025</v>
+      </c>
+      <c r="B260" s="1">
+        <f t="shared" si="15"/>
+        <v>400610025</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>400610026</v>
+      </c>
+      <c r="B261" s="1">
+        <f t="shared" si="15"/>
+        <v>400610026</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>400610027</v>
+      </c>
+      <c r="B262" s="1">
+        <f t="shared" si="15"/>
+        <v>400610027</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>400610028</v>
+      </c>
+      <c r="B263" s="1">
+        <f t="shared" si="15"/>
+        <v>400610028</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>400610029</v>
+      </c>
+      <c r="B264" s="1">
+        <f t="shared" si="15"/>
+        <v>400610029</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>400610030</v>
+      </c>
+      <c r="B265" s="1">
+        <f t="shared" ref="B265:B274" si="16">A265</f>
+        <v>400610030</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>400610031</v>
+      </c>
+      <c r="B266" s="1">
+        <f t="shared" si="16"/>
+        <v>400610031</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>400610032</v>
+      </c>
+      <c r="B267" s="1">
+        <f t="shared" si="16"/>
+        <v>400610032</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>400610033</v>
+      </c>
+      <c r="B268" s="1">
+        <f t="shared" si="16"/>
+        <v>400610033</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>400610034</v>
+      </c>
+      <c r="B269" s="1">
+        <f t="shared" si="16"/>
+        <v>400610034</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>400610035</v>
+      </c>
+      <c r="B270" s="1">
+        <f t="shared" si="16"/>
+        <v>400610035</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>400710001</v>
+      </c>
+      <c r="B272" s="1">
+        <f>A272</f>
+        <v>400710001</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>400710002</v>
+      </c>
+      <c r="B273" s="1">
+        <f t="shared" ref="B273:B280" si="17">A273</f>
+        <v>400710002</v>
+      </c>
+      <c r="C273" t="s">
+        <v>373</v>
+      </c>
+      <c r="F273" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>400710003</v>
+      </c>
+      <c r="B274" s="1">
+        <f t="shared" si="17"/>
+        <v>400710003</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>400710004</v>
+      </c>
+      <c r="B275" s="1">
+        <f t="shared" si="17"/>
+        <v>400710004</v>
+      </c>
+      <c r="C275" t="s">
+        <v>375</v>
+      </c>
+      <c r="F275" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>400710005</v>
+      </c>
+      <c r="B276" s="1">
+        <f t="shared" si="17"/>
+        <v>400710005</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>400710006</v>
+      </c>
+      <c r="B277" s="1">
+        <f t="shared" si="17"/>
+        <v>400710006</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>400710007</v>
+      </c>
+      <c r="B278" s="1">
+        <f t="shared" si="17"/>
+        <v>400710007</v>
+      </c>
+      <c r="C278" t="s">
+        <v>378</v>
+      </c>
+      <c r="F278" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>400710008</v>
+      </c>
+      <c r="B279" s="1">
+        <f t="shared" si="17"/>
+        <v>400710008</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>400710009</v>
+      </c>
+      <c r="B280" s="1">
+        <f t="shared" si="17"/>
+        <v>400710009</v>
+      </c>
+      <c r="C280" t="s">
+        <v>380</v>
+      </c>
+      <c r="F280" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>400710010</v>
+      </c>
+      <c r="B281" s="1">
+        <f t="shared" ref="B281:B290" si="18">A281</f>
+        <v>400710010</v>
+      </c>
+      <c r="C281" t="s">
+        <v>233</v>
+      </c>
+      <c r="F281" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>400710011</v>
+      </c>
+      <c r="B282" s="1">
+        <f t="shared" si="18"/>
+        <v>400710011</v>
+      </c>
+      <c r="C282" t="s">
+        <v>234</v>
+      </c>
+      <c r="F282" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>400710012</v>
+      </c>
+      <c r="B283" s="1">
+        <f t="shared" si="18"/>
+        <v>400710012</v>
+      </c>
+      <c r="C283" t="s">
+        <v>247</v>
+      </c>
+      <c r="F283" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>400710013</v>
+      </c>
+      <c r="B284" s="1">
+        <f t="shared" si="18"/>
+        <v>400710013</v>
+      </c>
+      <c r="C284" t="s">
+        <v>240</v>
+      </c>
+      <c r="F284" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>400710014</v>
+      </c>
+      <c r="B285" s="1">
+        <f t="shared" si="18"/>
+        <v>400710014</v>
+      </c>
+      <c r="C285" t="s">
+        <v>309</v>
+      </c>
+      <c r="F285" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>400710015</v>
+      </c>
+      <c r="B286" s="1">
+        <f t="shared" si="18"/>
+        <v>400710015</v>
+      </c>
+      <c r="C286" t="s">
+        <v>238</v>
+      </c>
+      <c r="F286" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>400710016</v>
+      </c>
+      <c r="B287" s="1">
+        <f t="shared" si="18"/>
+        <v>400710016</v>
+      </c>
+      <c r="C287" t="s">
+        <v>235</v>
+      </c>
+      <c r="F287" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>400710017</v>
+      </c>
+      <c r="B288" s="1">
+        <f t="shared" si="18"/>
+        <v>400710017</v>
+      </c>
+      <c r="C288" t="s">
+        <v>311</v>
+      </c>
+      <c r="F288" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>400710018</v>
+      </c>
+      <c r="B289" s="1">
+        <f t="shared" si="18"/>
+        <v>400710018</v>
+      </c>
+      <c r="C289" t="s">
+        <v>250</v>
+      </c>
+      <c r="F289" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>400710019</v>
+      </c>
+      <c r="B290" s="1">
+        <f t="shared" si="18"/>
+        <v>400710019</v>
+      </c>
+      <c r="C290" t="s">
+        <v>251</v>
+      </c>
+      <c r="F290" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
+        <v>400710020</v>
+      </c>
+      <c r="B291" s="1">
+        <f t="shared" ref="B291:B300" si="19">A291</f>
+        <v>400710020</v>
+      </c>
+      <c r="C291" t="s">
+        <v>246</v>
+      </c>
+      <c r="F291" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
+        <v>400710021</v>
+      </c>
+      <c r="B292" s="1">
+        <f t="shared" si="19"/>
+        <v>400710021</v>
+      </c>
+      <c r="C292" t="s">
+        <v>323</v>
+      </c>
+      <c r="F292" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
+        <v>400710022</v>
+      </c>
+      <c r="B293" s="1">
+        <f t="shared" si="19"/>
+        <v>400710022</v>
+      </c>
+      <c r="C293" t="s">
+        <v>257</v>
+      </c>
+      <c r="F293" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
+        <v>400710023</v>
+      </c>
+      <c r="B294" s="1">
+        <f t="shared" si="19"/>
+        <v>400710023</v>
+      </c>
+      <c r="C294" t="s">
+        <v>258</v>
+      </c>
+      <c r="F294" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
+        <v>400710024</v>
+      </c>
+      <c r="B295" s="1">
+        <f t="shared" si="19"/>
+        <v>400710024</v>
+      </c>
+      <c r="C295" t="s">
+        <v>259</v>
+      </c>
+      <c r="F295" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
+        <v>400710025</v>
+      </c>
+      <c r="B296" s="1">
+        <f t="shared" si="19"/>
+        <v>400710025</v>
+      </c>
+      <c r="C296" t="s">
+        <v>241</v>
+      </c>
+      <c r="F296" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
+        <v>400710026</v>
+      </c>
+      <c r="B297" s="1">
+        <f t="shared" si="19"/>
+        <v>400710026</v>
+      </c>
+      <c r="C297" t="s">
+        <v>352</v>
+      </c>
+      <c r="F297" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
+        <v>400710027</v>
+      </c>
+      <c r="B298" s="1">
+        <f t="shared" si="19"/>
+        <v>400710027</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
+        <v>400710028</v>
+      </c>
+      <c r="B299" s="1">
+        <f t="shared" si="19"/>
+        <v>400710028</v>
+      </c>
+      <c r="C299" t="s">
+        <v>247</v>
+      </c>
+      <c r="F299" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
+        <v>400710029</v>
+      </c>
+      <c r="B300" s="1">
+        <f t="shared" si="19"/>
+        <v>400710029</v>
+      </c>
+      <c r="C300" t="s">
+        <v>235</v>
+      </c>
+      <c r="F300" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
+        <v>400710030</v>
+      </c>
+      <c r="B301" s="1">
+        <f t="shared" ref="B301:B310" si="20">A301</f>
+        <v>400710030</v>
+      </c>
+      <c r="C301" t="s">
+        <v>381</v>
+      </c>
+      <c r="F301" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1">
+        <v>400710031</v>
+      </c>
+      <c r="B302" s="1">
+        <f t="shared" si="20"/>
+        <v>400710031</v>
+      </c>
+      <c r="C302" t="s">
+        <v>382</v>
+      </c>
+      <c r="F302" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1">
+        <v>400710032</v>
+      </c>
+      <c r="B303" s="1">
+        <f t="shared" si="20"/>
+        <v>400710032</v>
+      </c>
+      <c r="C303" t="s">
+        <v>383</v>
+      </c>
+      <c r="F303" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1">
+        <v>400710033</v>
+      </c>
+      <c r="B304" s="1">
+        <f t="shared" si="20"/>
+        <v>400710033</v>
+      </c>
+      <c r="C304" t="s">
+        <v>189</v>
+      </c>
+      <c r="F304" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="1">
+        <v>400710034</v>
+      </c>
+      <c r="B305" s="1">
+        <f t="shared" si="20"/>
+        <v>400710034</v>
+      </c>
+      <c r="C305" t="s">
+        <v>384</v>
+      </c>
+      <c r="F305" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1">
+        <v>400710035</v>
+      </c>
+      <c r="B306" s="1">
+        <f t="shared" si="20"/>
+        <v>400710035</v>
+      </c>
+      <c r="C306" t="s">
+        <v>171</v>
+      </c>
+      <c r="F306" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1">
+        <v>400710036</v>
+      </c>
+      <c r="B307" s="1">
+        <f t="shared" si="20"/>
+        <v>400710036</v>
+      </c>
+      <c r="C307" t="s">
+        <v>221</v>
+      </c>
+      <c r="F307"/>
+    </row>
+    <row r="308" spans="3:6">
+      <c r="C308"/>
+      <c r="F308"/>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="1">
+        <v>400810001</v>
+      </c>
+      <c r="B309" s="1">
+        <f>A309</f>
+        <v>400810001</v>
+      </c>
+      <c r="C309" t="s">
+        <v>385</v>
+      </c>
+      <c r="F309"/>
+    </row>
+    <row r="310" spans="3:6">
+      <c r="C310"/>
+      <c r="F310"/>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="1">
+        <v>400910001</v>
+      </c>
+      <c r="B311" s="1">
+        <f>A311</f>
+        <v>400910001</v>
+      </c>
+      <c r="C311" t="s">
+        <v>386</v>
+      </c>
+      <c r="F311"/>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="1">
+        <v>400910002</v>
+      </c>
+      <c r="B312" s="1">
+        <f t="shared" ref="B312:B320" si="21">A312</f>
+        <v>400910002</v>
+      </c>
+      <c r="C312" t="s">
+        <v>387</v>
+      </c>
+      <c r="F312"/>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="1">
+        <v>400910003</v>
+      </c>
+      <c r="B313" s="1">
+        <f t="shared" si="21"/>
+        <v>400910003</v>
+      </c>
+      <c r="C313" t="s">
+        <v>388</v>
+      </c>
+      <c r="F313"/>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="1">
+        <v>400910004</v>
+      </c>
+      <c r="B314" s="1">
+        <f t="shared" si="21"/>
+        <v>400910004</v>
+      </c>
+      <c r="C314" t="s">
+        <v>389</v>
+      </c>
+      <c r="F314"/>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="1">
+        <v>400910005</v>
+      </c>
+      <c r="B315" s="1">
+        <f t="shared" si="21"/>
+        <v>400910005</v>
+      </c>
+      <c r="C315" t="s">
+        <v>390</v>
+      </c>
+      <c r="F315"/>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="1">
+        <v>400910006</v>
+      </c>
+      <c r="B316" s="1">
+        <f t="shared" si="21"/>
+        <v>400910006</v>
+      </c>
+      <c r="C316" t="s">
+        <v>391</v>
+      </c>
+      <c r="F316"/>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="1">
+        <v>400910007</v>
+      </c>
+      <c r="B317" s="1">
+        <f t="shared" si="21"/>
+        <v>400910007</v>
+      </c>
+      <c r="C317" t="s">
+        <v>392</v>
+      </c>
+      <c r="F317"/>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="1">
+        <v>400910008</v>
+      </c>
+      <c r="B318" s="1">
+        <f t="shared" si="21"/>
+        <v>400910008</v>
+      </c>
+      <c r="C318" t="s">
+        <v>393</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="1">
+        <v>400910009</v>
+      </c>
+      <c r="B319" s="1">
+        <f t="shared" si="21"/>
+        <v>400910009</v>
+      </c>
+      <c r="C319" t="s">
+        <v>354</v>
+      </c>
+      <c r="F319" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="1">
+        <v>400910010</v>
+      </c>
+      <c r="B320" s="1">
+        <f t="shared" ref="B320:B329" si="22">A320</f>
+        <v>400910010</v>
+      </c>
+      <c r="C320" t="s">
+        <v>395</v>
+      </c>
+      <c r="F320" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="1">
+        <v>400910011</v>
+      </c>
+      <c r="B321" s="1">
+        <f t="shared" si="22"/>
+        <v>400910011</v>
+      </c>
+      <c r="C321" t="s">
+        <v>397</v>
+      </c>
+      <c r="F321" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="1">
+        <v>400910012</v>
+      </c>
+      <c r="B322" s="1">
+        <f t="shared" si="22"/>
+        <v>400910012</v>
+      </c>
+      <c r="C322" t="s">
+        <v>398</v>
+      </c>
+      <c r="F322" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="1">
+        <v>400910013</v>
+      </c>
+      <c r="B323" s="1">
+        <f t="shared" si="22"/>
+        <v>400910013</v>
+      </c>
+      <c r="C323" t="s">
+        <v>399</v>
+      </c>
+      <c r="F323" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="1">
+        <v>400910014</v>
+      </c>
+      <c r="B324" s="1">
+        <f t="shared" si="22"/>
+        <v>400910014</v>
+      </c>
+      <c r="C324" t="s">
+        <v>400</v>
+      </c>
+      <c r="F324" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="1">
+        <v>400910015</v>
+      </c>
+      <c r="B325" s="1">
+        <f t="shared" si="22"/>
+        <v>400910015</v>
+      </c>
+      <c r="C325" t="s">
+        <v>401</v>
+      </c>
+      <c r="F325" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="1">
+        <v>400910016</v>
+      </c>
+      <c r="B326" s="1">
+        <f t="shared" si="22"/>
+        <v>400910016</v>
+      </c>
+      <c r="C326" t="s">
+        <v>353</v>
+      </c>
+      <c r="F326" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="1">
+        <v>400910017</v>
+      </c>
+      <c r="B327" s="1">
+        <f t="shared" si="22"/>
+        <v>400910017</v>
+      </c>
+      <c r="C327" t="s">
+        <v>404</v>
+      </c>
+      <c r="F327" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="1">
+        <v>400910018</v>
+      </c>
+      <c r="B328" s="1">
+        <f t="shared" si="22"/>
+        <v>400910018</v>
+      </c>
+      <c r="C328" t="s">
+        <v>406</v>
+      </c>
+      <c r="F328" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="1">
+        <v>400910019</v>
+      </c>
+      <c r="B329" s="1">
+        <f t="shared" si="22"/>
+        <v>400910019</v>
+      </c>
+      <c r="C329" t="s">
+        <v>408</v>
+      </c>
+      <c r="F329" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="1">
+        <v>400910020</v>
+      </c>
+      <c r="B330" s="1">
+        <f t="shared" ref="B330:B339" si="23">A330</f>
+        <v>400910020</v>
+      </c>
+      <c r="C330" t="s">
+        <v>410</v>
+      </c>
+      <c r="F330" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="1">
+        <v>400910021</v>
+      </c>
+      <c r="B331" s="1">
+        <f t="shared" si="23"/>
+        <v>400910021</v>
+      </c>
+      <c r="C331" t="s">
+        <v>353</v>
+      </c>
+      <c r="F331" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="1">
+        <v>400910022</v>
+      </c>
+      <c r="B332" s="1">
+        <f t="shared" si="23"/>
+        <v>400910022</v>
+      </c>
+      <c r="C332" t="s">
+        <v>413</v>
+      </c>
+      <c r="F332" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="1">
+        <v>400910023</v>
+      </c>
+      <c r="B333" s="1">
+        <f t="shared" si="23"/>
+        <v>400910023</v>
+      </c>
+      <c r="C333" t="s">
+        <v>415</v>
+      </c>
+      <c r="F333" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="1">
+        <v>400910024</v>
+      </c>
+      <c r="B334" s="1">
+        <f t="shared" si="23"/>
+        <v>400910024</v>
+      </c>
+      <c r="C334" t="s">
+        <v>417</v>
+      </c>
+      <c r="F334" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="1">
+        <v>400910025</v>
+      </c>
+      <c r="B335" s="1">
+        <f t="shared" si="23"/>
+        <v>400910025</v>
+      </c>
+      <c r="C335" t="s">
+        <v>418</v>
+      </c>
+      <c r="F335" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="336" spans="3:6">
+      <c r="C336"/>
+      <c r="F336"/>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1">
+        <v>401010001</v>
+      </c>
+      <c r="B337" s="1">
+        <f>A337</f>
+        <v>401010001</v>
+      </c>
+      <c r="C337" t="s">
+        <v>419</v>
+      </c>
+      <c r="F337" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1">
+        <v>401010002</v>
+      </c>
+      <c r="B338" s="1">
+        <f t="shared" ref="B338:B360" si="24">A338</f>
+        <v>401010002</v>
+      </c>
+      <c r="C338" t="s">
+        <v>420</v>
+      </c>
+      <c r="F338" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="1">
+        <v>401010003</v>
+      </c>
+      <c r="B339" s="1">
+        <f t="shared" si="24"/>
+        <v>401010003</v>
+      </c>
+      <c r="C339" t="s">
+        <v>422</v>
+      </c>
+      <c r="F339" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1">
+        <v>401010004</v>
+      </c>
+      <c r="B340" s="1">
+        <f t="shared" si="24"/>
+        <v>401010004</v>
+      </c>
+      <c r="C340" t="s">
+        <v>424</v>
+      </c>
+      <c r="F340" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1">
+        <v>401010005</v>
+      </c>
+      <c r="B341" s="1">
+        <f t="shared" si="24"/>
+        <v>401010005</v>
+      </c>
+      <c r="C341" t="s">
+        <v>425</v>
+      </c>
+      <c r="F341" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1">
+        <v>401010006</v>
+      </c>
+      <c r="B342" s="1">
+        <f t="shared" si="24"/>
+        <v>401010006</v>
+      </c>
+      <c r="C342" t="s">
+        <v>427</v>
+      </c>
+      <c r="F342" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1">
+        <v>401010007</v>
+      </c>
+      <c r="B343" s="1">
+        <f t="shared" si="24"/>
+        <v>401010007</v>
+      </c>
+      <c r="C343" t="s">
+        <v>428</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="1">
+        <v>401010008</v>
+      </c>
+      <c r="B344" s="1">
+        <f t="shared" si="24"/>
+        <v>401010008</v>
+      </c>
+      <c r="C344" t="s">
+        <v>429</v>
+      </c>
+      <c r="F344" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="1">
+        <v>401010009</v>
+      </c>
+      <c r="B345" s="1">
+        <f t="shared" si="24"/>
+        <v>401010009</v>
+      </c>
+      <c r="C345" t="s">
+        <v>430</v>
+      </c>
+      <c r="F345" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="1">
+        <v>401010010</v>
+      </c>
+      <c r="B346" s="1">
+        <f t="shared" si="24"/>
+        <v>401010010</v>
+      </c>
+      <c r="C346" t="s">
+        <v>432</v>
+      </c>
+      <c r="F346" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="1">
+        <v>401010011</v>
+      </c>
+      <c r="B347" s="1">
+        <f t="shared" si="24"/>
+        <v>401010011</v>
+      </c>
+      <c r="C347" t="s">
+        <v>433</v>
+      </c>
+      <c r="F347" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1">
+        <v>401010012</v>
+      </c>
+      <c r="B348" s="1">
+        <f t="shared" si="24"/>
+        <v>401010012</v>
+      </c>
+      <c r="C348" t="s">
+        <v>434</v>
+      </c>
+      <c r="F348" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="1">
+        <v>401010013</v>
+      </c>
+      <c r="B349" s="1">
+        <f t="shared" si="24"/>
+        <v>401010013</v>
+      </c>
+      <c r="C349" t="s">
+        <v>435</v>
+      </c>
+      <c r="F349" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1">
+        <v>401010014</v>
+      </c>
+      <c r="B350" s="1">
+        <f t="shared" si="24"/>
+        <v>401010014</v>
+      </c>
+      <c r="C350" t="s">
+        <v>436</v>
+      </c>
+      <c r="F350" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="1">
+        <v>401010015</v>
+      </c>
+      <c r="B351" s="1">
+        <f t="shared" si="24"/>
+        <v>401010015</v>
+      </c>
+      <c r="C351" t="s">
+        <v>438</v>
+      </c>
+      <c r="F351" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1">
+        <v>401010016</v>
+      </c>
+      <c r="B352" s="1">
+        <f t="shared" si="24"/>
+        <v>401010016</v>
+      </c>
+      <c r="C352" t="s">
+        <v>439</v>
+      </c>
+      <c r="F352" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1">
+        <v>401010017</v>
+      </c>
+      <c r="B353" s="1">
+        <f t="shared" si="24"/>
+        <v>401010017</v>
+      </c>
+      <c r="C353" t="s">
+        <v>440</v>
+      </c>
+      <c r="F353" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1">
+        <v>401010018</v>
+      </c>
+      <c r="B354" s="1">
+        <f t="shared" si="24"/>
+        <v>401010018</v>
+      </c>
+      <c r="C354" t="s">
+        <v>441</v>
+      </c>
+      <c r="F354" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1">
+        <v>401010019</v>
+      </c>
+      <c r="B355" s="1">
+        <f t="shared" si="24"/>
+        <v>401010019</v>
+      </c>
+      <c r="C355" t="s">
+        <v>442</v>
+      </c>
+      <c r="F355" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1">
+        <v>401010020</v>
+      </c>
+      <c r="B356" s="1">
+        <f t="shared" si="24"/>
+        <v>401010020</v>
+      </c>
+      <c r="C356" t="s">
+        <v>443</v>
+      </c>
+      <c r="F356" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1">
+        <v>401010021</v>
+      </c>
+      <c r="B357" s="1">
+        <f t="shared" si="24"/>
+        <v>401010021</v>
+      </c>
+      <c r="C357" t="s">
+        <v>444</v>
+      </c>
+      <c r="F357" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1">
+        <v>401010022</v>
+      </c>
+      <c r="B358" s="1">
+        <f t="shared" si="24"/>
+        <v>401010022</v>
+      </c>
+      <c r="C358" t="s">
+        <v>445</v>
+      </c>
+      <c r="F358" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1">
+        <v>401010023</v>
+      </c>
+      <c r="B359" s="1">
+        <f t="shared" si="24"/>
+        <v>401010023</v>
+      </c>
+      <c r="C359" t="s">
+        <v>446</v>
+      </c>
+      <c r="F359" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1">
+        <v>401010024</v>
+      </c>
+      <c r="B360" s="1">
+        <f t="shared" si="24"/>
+        <v>401010024</v>
+      </c>
+      <c r="C360" t="s">
+        <v>447</v>
+      </c>
+      <c r="F360" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="361" spans="3:6">
+      <c r="C361"/>
+      <c r="F361"/>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="1">
+        <v>401110001</v>
+      </c>
+      <c r="B362" s="1">
+        <f>A362</f>
+        <v>401110001</v>
+      </c>
+      <c r="C362" t="s">
+        <v>448</v>
+      </c>
+      <c r="F362" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1">
+        <v>401110002</v>
+      </c>
+      <c r="B363" s="1">
+        <f t="shared" ref="B363:B380" si="25">A363</f>
+        <v>401110002</v>
+      </c>
+      <c r="C363" t="s">
+        <v>449</v>
+      </c>
+      <c r="F363" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1">
+        <v>401110003</v>
+      </c>
+      <c r="B364" s="1">
+        <f t="shared" si="25"/>
+        <v>401110003</v>
+      </c>
+      <c r="C364" t="s">
+        <v>450</v>
+      </c>
+      <c r="F364" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1">
+        <v>401110004</v>
+      </c>
+      <c r="B365" s="1">
+        <f t="shared" si="25"/>
+        <v>401110004</v>
+      </c>
+      <c r="C365" t="s">
+        <v>451</v>
+      </c>
+      <c r="F365" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1">
+        <v>401110005</v>
+      </c>
+      <c r="B366" s="1">
+        <f t="shared" si="25"/>
+        <v>401110005</v>
+      </c>
+      <c r="C366" t="s">
+        <v>238</v>
+      </c>
+      <c r="F366" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1">
+        <v>401110006</v>
+      </c>
+      <c r="B367" s="1">
+        <f t="shared" si="25"/>
+        <v>401110006</v>
+      </c>
+      <c r="C367" t="s">
+        <v>452</v>
+      </c>
+      <c r="F367" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1">
+        <v>401110007</v>
+      </c>
+      <c r="B368" s="1">
+        <f t="shared" si="25"/>
+        <v>401110007</v>
+      </c>
+      <c r="C368" t="s">
+        <v>246</v>
+      </c>
+      <c r="F368" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="1">
+        <v>401110008</v>
+      </c>
+      <c r="B369" s="1">
+        <f t="shared" si="25"/>
+        <v>401110008</v>
+      </c>
+      <c r="C369" t="s">
+        <v>239</v>
+      </c>
+      <c r="F369" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="1">
+        <v>401110009</v>
+      </c>
+      <c r="B370" s="1">
+        <f t="shared" si="25"/>
+        <v>401110009</v>
+      </c>
+      <c r="C370" t="s">
+        <v>453</v>
+      </c>
+      <c r="F370" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="1">
+        <v>401110010</v>
+      </c>
+      <c r="B371" s="1">
+        <f t="shared" si="25"/>
+        <v>401110010</v>
+      </c>
+      <c r="C371" t="s">
+        <v>454</v>
+      </c>
+      <c r="F371" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="1">
+        <v>401110011</v>
+      </c>
+      <c r="B372" s="1">
+        <f t="shared" si="25"/>
+        <v>401110011</v>
+      </c>
+      <c r="C372" t="s">
+        <v>455</v>
+      </c>
+      <c r="F372" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="1">
+        <v>401110012</v>
+      </c>
+      <c r="B373" s="1">
+        <f t="shared" si="25"/>
+        <v>401110012</v>
+      </c>
+      <c r="C373" t="s">
+        <v>456</v>
+      </c>
+      <c r="F373" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1">
+        <v>401110013</v>
+      </c>
+      <c r="B374" s="1">
+        <f t="shared" si="25"/>
+        <v>401110013</v>
+      </c>
+      <c r="C374" t="s">
+        <v>457</v>
+      </c>
+      <c r="F374" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1">
+        <v>401110014</v>
+      </c>
+      <c r="B375" s="1">
+        <f t="shared" si="25"/>
+        <v>401110014</v>
+      </c>
+      <c r="C375" t="s">
+        <v>458</v>
+      </c>
+      <c r="F375" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="1">
+        <v>401110015</v>
+      </c>
+      <c r="B376" s="1">
+        <f t="shared" si="25"/>
+        <v>401110015</v>
+      </c>
+      <c r="C376" t="s">
+        <v>459</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="1">
+        <v>401110016</v>
+      </c>
+      <c r="B377" s="1">
+        <f t="shared" si="25"/>
+        <v>401110016</v>
+      </c>
+      <c r="C377" t="s">
+        <v>460</v>
+      </c>
+      <c r="F377" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="1">
+        <v>401110017</v>
+      </c>
+      <c r="B378" s="1">
+        <f t="shared" si="25"/>
+        <v>401110017</v>
+      </c>
+      <c r="C378" t="s">
+        <v>461</v>
+      </c>
+      <c r="F378" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="1">
+        <v>401110018</v>
+      </c>
+      <c r="B379" s="1">
+        <f t="shared" si="25"/>
+        <v>401110018</v>
+      </c>
+      <c r="C379" t="s">
+        <v>462</v>
+      </c>
+      <c r="F379" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="1">
+        <v>401110019</v>
+      </c>
+      <c r="B380" s="1">
+        <f t="shared" si="25"/>
+        <v>401110019</v>
+      </c>
+      <c r="C380" t="s">
+        <v>464</v>
+      </c>
+      <c r="F380" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="381" spans="3:6">
+      <c r="C381"/>
+      <c r="F381"/>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="1">
+        <v>401210001</v>
+      </c>
+      <c r="B382" s="1">
+        <f>A382</f>
+        <v>401210001</v>
+      </c>
+      <c r="C382" t="s">
+        <v>465</v>
+      </c>
+      <c r="F382" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="1">
+        <v>401210002</v>
+      </c>
+      <c r="B383" s="1">
+        <f t="shared" ref="B383:B410" si="26">A383</f>
+        <v>401210002</v>
+      </c>
+      <c r="C383" t="s">
+        <v>466</v>
+      </c>
+      <c r="F383" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="1">
+        <v>401210003</v>
+      </c>
+      <c r="B384" s="1">
+        <f t="shared" si="26"/>
+        <v>401210003</v>
+      </c>
+      <c r="C384" t="s">
+        <v>467</v>
+      </c>
+      <c r="F384" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="1">
+        <v>401210004</v>
+      </c>
+      <c r="B385" s="1">
+        <f t="shared" si="26"/>
+        <v>401210004</v>
+      </c>
+      <c r="C385" t="s">
+        <v>468</v>
+      </c>
+      <c r="F385" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="1">
+        <v>401210005</v>
+      </c>
+      <c r="B386" s="1">
+        <f t="shared" si="26"/>
+        <v>401210005</v>
+      </c>
+      <c r="C386" t="s">
+        <v>469</v>
+      </c>
+      <c r="F386" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="1">
+        <v>401210006</v>
+      </c>
+      <c r="B387" s="1">
+        <f t="shared" si="26"/>
+        <v>401210006</v>
+      </c>
+      <c r="C387" t="s">
+        <v>470</v>
+      </c>
+      <c r="F387" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="1">
+        <v>401210007</v>
+      </c>
+      <c r="B388" s="1">
+        <f t="shared" si="26"/>
+        <v>401210007</v>
+      </c>
+      <c r="C388" t="s">
+        <v>471</v>
+      </c>
+      <c r="F388" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="1">
+        <v>401210008</v>
+      </c>
+      <c r="B389" s="1">
+        <f t="shared" si="26"/>
+        <v>401210008</v>
+      </c>
+      <c r="C389" t="s">
+        <v>375</v>
+      </c>
+      <c r="F389" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="1">
+        <v>401210009</v>
+      </c>
+      <c r="B390" s="1">
+        <f t="shared" si="26"/>
+        <v>401210009</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="1">
+        <v>401210010</v>
+      </c>
+      <c r="B391" s="1">
+        <f t="shared" si="26"/>
+        <v>401210010</v>
+      </c>
+      <c r="C391" t="s">
+        <v>472</v>
+      </c>
+      <c r="F391" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="1">
+        <v>401210011</v>
+      </c>
+      <c r="B392" s="1">
+        <f t="shared" si="26"/>
+        <v>401210011</v>
+      </c>
+      <c r="C392" t="s">
+        <v>474</v>
+      </c>
+      <c r="F392" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="1">
+        <v>401210012</v>
+      </c>
+      <c r="B393" s="1">
+        <f t="shared" si="26"/>
+        <v>401210012</v>
+      </c>
+      <c r="C393" t="s">
+        <v>475</v>
+      </c>
+      <c r="F393" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="1">
+        <v>401210013</v>
+      </c>
+      <c r="B394" s="1">
+        <f t="shared" si="26"/>
+        <v>401210013</v>
+      </c>
+      <c r="C394" t="s">
+        <v>476</v>
+      </c>
+      <c r="F394" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="1">
+        <v>401210014</v>
+      </c>
+      <c r="B395" s="1">
+        <f t="shared" si="26"/>
+        <v>401210014</v>
+      </c>
+      <c r="C395" t="s">
+        <v>477</v>
+      </c>
+      <c r="F395" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="1">
+        <v>401210015</v>
+      </c>
+      <c r="B396" s="1">
+        <f t="shared" si="26"/>
+        <v>401210015</v>
+      </c>
+      <c r="C396" t="s">
+        <v>413</v>
+      </c>
+      <c r="F396" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="1">
+        <v>401210016</v>
+      </c>
+      <c r="B397" s="1">
+        <f t="shared" si="26"/>
+        <v>401210016</v>
+      </c>
+      <c r="C397" t="s">
+        <v>478</v>
+      </c>
+      <c r="F397"/>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="1">
+        <v>401210017</v>
+      </c>
+      <c r="B398" s="1">
+        <f t="shared" si="26"/>
+        <v>401210017</v>
+      </c>
+      <c r="C398" t="s">
+        <v>479</v>
+      </c>
+      <c r="F398" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="1">
+        <v>401210018</v>
+      </c>
+      <c r="B399" s="1">
+        <f t="shared" si="26"/>
+        <v>401210018</v>
+      </c>
+      <c r="C399" t="s">
+        <v>353</v>
+      </c>
+      <c r="F399" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="1">
+        <v>401210019</v>
+      </c>
+      <c r="B400" s="1">
+        <f t="shared" si="26"/>
+        <v>401210019</v>
+      </c>
+      <c r="C400" t="s">
+        <v>481</v>
+      </c>
+      <c r="F400" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="1">
+        <v>401210020</v>
+      </c>
+      <c r="B401" s="1">
+        <f t="shared" si="26"/>
+        <v>401210020</v>
+      </c>
+      <c r="C401" t="s">
+        <v>190</v>
+      </c>
+      <c r="F401" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="1">
+        <v>401210021</v>
+      </c>
+      <c r="B402" s="1">
+        <f t="shared" si="26"/>
+        <v>401210021</v>
+      </c>
+      <c r="C402" t="s">
+        <v>482</v>
+      </c>
+      <c r="F402" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="1">
+        <v>401210022</v>
+      </c>
+      <c r="B403" s="1">
+        <f t="shared" si="26"/>
+        <v>401210022</v>
+      </c>
+      <c r="C403" t="s">
+        <v>483</v>
+      </c>
+      <c r="F403" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" s="1">
+        <v>401210023</v>
+      </c>
+      <c r="B404" s="1">
+        <f t="shared" si="26"/>
+        <v>401210023</v>
+      </c>
+      <c r="C404" t="s">
+        <v>484</v>
+      </c>
+      <c r="F404" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="1">
+        <v>401210024</v>
+      </c>
+      <c r="B405" s="1">
+        <f t="shared" si="26"/>
+        <v>401210024</v>
+      </c>
+      <c r="C405" t="s">
+        <v>485</v>
+      </c>
+      <c r="F405" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" s="1">
+        <v>401210025</v>
+      </c>
+      <c r="B406" s="1">
+        <f t="shared" si="26"/>
+        <v>401210025</v>
+      </c>
+      <c r="C406" t="s">
+        <v>487</v>
+      </c>
+      <c r="F406" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" s="1">
+        <v>401210026</v>
+      </c>
+      <c r="B407" s="1">
+        <f t="shared" si="26"/>
+        <v>401210026</v>
+      </c>
+      <c r="C407" t="s">
+        <v>488</v>
+      </c>
+      <c r="F407" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="1">
+        <v>401210027</v>
+      </c>
+      <c r="B408" s="1">
+        <f t="shared" si="26"/>
+        <v>401210027</v>
+      </c>
+      <c r="C408" t="s">
+        <v>489</v>
+      </c>
+      <c r="F408" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="1">
+        <v>401210028</v>
+      </c>
+      <c r="B409" s="1">
+        <f t="shared" si="26"/>
+        <v>401210028</v>
+      </c>
+      <c r="C409" t="s">
+        <v>490</v>
+      </c>
+      <c r="F409" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="1">
+        <v>401210029</v>
+      </c>
+      <c r="B410" s="1">
+        <f t="shared" si="26"/>
+        <v>401210029</v>
+      </c>
+      <c r="C410" t="s">
+        <v>491</v>
+      </c>
+      <c r="F410"/>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" s="1">
+        <v>401210030</v>
+      </c>
+      <c r="B411" s="1">
+        <f t="shared" ref="B411:B423" si="27">A411</f>
+        <v>401210030</v>
+      </c>
+      <c r="C411" t="s">
+        <v>492</v>
+      </c>
+      <c r="F411"/>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="1">
+        <v>401210031</v>
+      </c>
+      <c r="B412" s="1">
+        <f t="shared" si="27"/>
+        <v>401210031</v>
+      </c>
+      <c r="C412" t="s">
+        <v>493</v>
+      </c>
+      <c r="F412" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="1">
+        <v>401210032</v>
+      </c>
+      <c r="B413" s="1">
+        <f t="shared" si="27"/>
+        <v>401210032</v>
+      </c>
+      <c r="C413" t="s">
+        <v>494</v>
+      </c>
+      <c r="F413" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="1">
+        <v>401210033</v>
+      </c>
+      <c r="B414" s="1">
+        <f t="shared" si="27"/>
+        <v>401210033</v>
+      </c>
+      <c r="C414" t="s">
+        <v>496</v>
+      </c>
+      <c r="F414" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" s="1">
+        <v>401210034</v>
+      </c>
+      <c r="B415" s="1">
+        <f t="shared" si="27"/>
+        <v>401210034</v>
+      </c>
+      <c r="C415" t="s">
+        <v>497</v>
+      </c>
+      <c r="F415" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="1">
+        <v>401210035</v>
+      </c>
+      <c r="B416" s="1">
+        <f t="shared" si="27"/>
+        <v>401210035</v>
+      </c>
+      <c r="C416" t="s">
+        <v>498</v>
+      </c>
+      <c r="F416" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" s="1">
+        <v>401210036</v>
+      </c>
+      <c r="B417" s="1">
+        <f t="shared" si="27"/>
+        <v>401210036</v>
+      </c>
+      <c r="C417" t="s">
+        <v>499</v>
+      </c>
+      <c r="F417" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="1">
+        <v>401210037</v>
+      </c>
+      <c r="B418" s="1">
+        <f t="shared" si="27"/>
+        <v>401210037</v>
+      </c>
+      <c r="C418" t="s">
+        <v>482</v>
+      </c>
+      <c r="F418" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" s="1">
+        <v>401210038</v>
+      </c>
+      <c r="B419" s="1">
+        <f t="shared" si="27"/>
+        <v>401210038</v>
+      </c>
+      <c r="C419" t="s">
+        <v>409</v>
+      </c>
+      <c r="F419" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="1">
+        <v>401210039</v>
+      </c>
+      <c r="B420" s="1">
+        <f t="shared" si="27"/>
+        <v>401210039</v>
+      </c>
+      <c r="C420" t="s">
+        <v>501</v>
+      </c>
+      <c r="F420" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" s="1">
+        <v>401210040</v>
+      </c>
+      <c r="B421" s="1">
+        <f t="shared" si="27"/>
+        <v>401210040</v>
+      </c>
+      <c r="C421" t="s">
+        <v>502</v>
+      </c>
+      <c r="F421" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" s="1">
+        <v>401210041</v>
+      </c>
+      <c r="B422" s="1">
+        <f t="shared" si="27"/>
+        <v>401210041</v>
+      </c>
+      <c r="C422" t="s">
+        <v>503</v>
+      </c>
+      <c r="F422" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="1">
+        <v>401210042</v>
+      </c>
+      <c r="B423" s="1">
+        <f t="shared" si="27"/>
+        <v>401210042</v>
+      </c>
+      <c r="C423" t="s">
+        <v>504</v>
+      </c>
+      <c r="F423" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="424" spans="3:6">
+      <c r="C424"/>
+      <c r="F424"/>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="1">
+        <v>401310001</v>
+      </c>
+      <c r="B425" s="1">
+        <f>A425</f>
+        <v>401310001</v>
+      </c>
+      <c r="C425" t="s">
+        <v>505</v>
+      </c>
+      <c r="F425" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="1">
+        <v>401310002</v>
+      </c>
+      <c r="B426" s="1">
+        <f t="shared" ref="B426:B443" si="28">A426</f>
+        <v>401310002</v>
+      </c>
+      <c r="C426" t="s">
+        <v>507</v>
+      </c>
+      <c r="F426" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="1">
+        <v>401310003</v>
+      </c>
+      <c r="B427" s="1">
+        <f t="shared" si="28"/>
+        <v>401310003</v>
+      </c>
+      <c r="C427" t="s">
+        <v>509</v>
+      </c>
+      <c r="F427" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" s="1">
+        <v>401310004</v>
+      </c>
+      <c r="B428" s="1">
+        <f t="shared" si="28"/>
+        <v>401310004</v>
+      </c>
+      <c r="C428" t="s">
+        <v>511</v>
+      </c>
+      <c r="F428" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="1">
+        <v>401310005</v>
+      </c>
+      <c r="B429" s="1">
+        <f t="shared" si="28"/>
+        <v>401310005</v>
+      </c>
+      <c r="C429" t="s">
+        <v>512</v>
+      </c>
+      <c r="F429" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" s="1">
+        <v>401310006</v>
+      </c>
+      <c r="B430" s="1">
+        <f t="shared" si="28"/>
+        <v>401310006</v>
+      </c>
+      <c r="C430" t="s">
+        <v>513</v>
+      </c>
+      <c r="F430" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" s="1">
+        <v>401310007</v>
+      </c>
+      <c r="B431" s="1">
+        <f t="shared" si="28"/>
+        <v>401310007</v>
+      </c>
+      <c r="C431" t="s">
+        <v>514</v>
+      </c>
+      <c r="F431" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" s="1">
+        <v>401310008</v>
+      </c>
+      <c r="B432" s="1">
+        <f t="shared" si="28"/>
+        <v>401310008</v>
+      </c>
+      <c r="C432" t="s">
+        <v>515</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="1">
+        <v>401310009</v>
+      </c>
+      <c r="B433" s="1">
+        <f t="shared" si="28"/>
+        <v>401310009</v>
+      </c>
+      <c r="C433" t="s">
+        <v>516</v>
+      </c>
+      <c r="F433" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" s="1">
+        <v>401310010</v>
+      </c>
+      <c r="B434" s="1">
+        <f t="shared" si="28"/>
+        <v>401310010</v>
+      </c>
+      <c r="C434" t="s">
+        <v>249</v>
+      </c>
+      <c r="F434" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" s="1">
+        <v>401310011</v>
+      </c>
+      <c r="B435" s="1">
+        <f t="shared" si="28"/>
+        <v>401310011</v>
+      </c>
+      <c r="C435" t="s">
+        <v>480</v>
+      </c>
+      <c r="F435" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" s="1">
+        <v>401310012</v>
+      </c>
+      <c r="B436" s="1">
+        <f t="shared" si="28"/>
+        <v>401310012</v>
+      </c>
+      <c r="C436" t="s">
+        <v>517</v>
+      </c>
+      <c r="F436" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" s="1">
+        <v>401310013</v>
+      </c>
+      <c r="B437" s="1">
+        <f t="shared" si="28"/>
+        <v>401310013</v>
+      </c>
+      <c r="C437" t="s">
+        <v>518</v>
+      </c>
+      <c r="F437" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" s="1">
+        <v>401310014</v>
+      </c>
+      <c r="B438" s="1">
+        <f t="shared" si="28"/>
+        <v>401310014</v>
+      </c>
+      <c r="C438" t="s">
+        <v>519</v>
+      </c>
+      <c r="F438" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" s="1">
+        <v>401310015</v>
+      </c>
+      <c r="B439" s="1">
+        <f t="shared" si="28"/>
+        <v>401310015</v>
+      </c>
+      <c r="C439" t="s">
+        <v>520</v>
+      </c>
+      <c r="F439" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" s="1">
+        <v>401310016</v>
+      </c>
+      <c r="B440" s="1">
+        <f t="shared" si="28"/>
+        <v>401310016</v>
+      </c>
+      <c r="C440" t="s">
+        <v>521</v>
+      </c>
+      <c r="F440" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" s="1">
+        <v>401310017</v>
+      </c>
+      <c r="B441" s="1">
+        <f t="shared" si="28"/>
+        <v>401310017</v>
+      </c>
+      <c r="C441" t="s">
+        <v>522</v>
+      </c>
+      <c r="F441" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="1">
+        <v>401310018</v>
+      </c>
+      <c r="B442" s="1">
+        <f t="shared" si="28"/>
+        <v>401310018</v>
+      </c>
+      <c r="C442" t="s">
+        <v>523</v>
+      </c>
+      <c r="F442" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="1">
+        <v>401310019</v>
+      </c>
+      <c r="B443" s="1">
+        <f t="shared" si="28"/>
+        <v>401310019</v>
+      </c>
+      <c r="C443" t="s">
+        <v>524</v>
+      </c>
+      <c r="F443" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="1">
+        <v>401310020</v>
+      </c>
+      <c r="B444" s="1">
+        <f t="shared" ref="B444:B462" si="29">A444</f>
+        <v>401310020</v>
+      </c>
+      <c r="C444" t="s">
+        <v>525</v>
+      </c>
+      <c r="F444" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="1">
+        <v>401310021</v>
+      </c>
+      <c r="B445" s="1">
+        <f t="shared" si="29"/>
+        <v>401310021</v>
+      </c>
+      <c r="C445" t="s">
+        <v>317</v>
+      </c>
+      <c r="F445" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="1">
+        <v>401310022</v>
+      </c>
+      <c r="B446" s="1">
+        <f t="shared" si="29"/>
+        <v>401310022</v>
+      </c>
+      <c r="C446" t="s">
+        <v>526</v>
+      </c>
+      <c r="F446" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="1">
+        <v>401310023</v>
+      </c>
+      <c r="B447" s="1">
+        <f t="shared" si="29"/>
+        <v>401310023</v>
+      </c>
+      <c r="C447" t="s">
+        <v>527</v>
+      </c>
+      <c r="F447" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="1">
+        <v>401310024</v>
+      </c>
+      <c r="B448" s="1">
+        <f t="shared" si="29"/>
+        <v>401310024</v>
+      </c>
+      <c r="C448" t="s">
+        <v>457</v>
+      </c>
+      <c r="F448" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="1">
+        <v>401310025</v>
+      </c>
+      <c r="B449" s="1">
+        <f t="shared" si="29"/>
+        <v>401310025</v>
+      </c>
+      <c r="C449" t="s">
+        <v>528</v>
+      </c>
+      <c r="F449" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" s="1">
+        <v>401310026</v>
+      </c>
+      <c r="B450" s="1">
+        <f t="shared" si="29"/>
+        <v>401310026</v>
+      </c>
+      <c r="C450" t="s">
+        <v>529</v>
+      </c>
+      <c r="F450" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="1">
+        <v>401310027</v>
+      </c>
+      <c r="B451" s="1">
+        <f t="shared" si="29"/>
+        <v>401310027</v>
+      </c>
+      <c r="C451" t="s">
+        <v>530</v>
+      </c>
+      <c r="F451" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="1">
+        <v>401310028</v>
+      </c>
+      <c r="B452" s="1">
+        <f t="shared" si="29"/>
+        <v>401310028</v>
+      </c>
+      <c r="C452" t="s">
+        <v>531</v>
+      </c>
+      <c r="F452" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="1">
+        <v>401310029</v>
+      </c>
+      <c r="B453" s="1">
+        <f t="shared" si="29"/>
+        <v>401310029</v>
+      </c>
+      <c r="C453" t="s">
+        <v>532</v>
+      </c>
+      <c r="F453" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" s="1">
+        <v>401310030</v>
+      </c>
+      <c r="B454" s="1">
+        <f t="shared" si="29"/>
+        <v>401310030</v>
+      </c>
+      <c r="C454" t="s">
+        <v>534</v>
+      </c>
+      <c r="F454" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" s="1">
+        <v>401310031</v>
+      </c>
+      <c r="B455" s="1">
+        <f t="shared" si="29"/>
+        <v>401310031</v>
+      </c>
+      <c r="C455" t="s">
+        <v>536</v>
+      </c>
+      <c r="F455"/>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" s="1">
+        <v>401310032</v>
+      </c>
+      <c r="B456" s="1">
+        <f t="shared" si="29"/>
+        <v>401310032</v>
+      </c>
+      <c r="C456" t="s">
+        <v>537</v>
+      </c>
+      <c r="F456"/>
+    </row>
+    <row r="457" spans="3:6">
+      <c r="C457"/>
+      <c r="F457"/>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" s="1">
+        <v>401410001</v>
+      </c>
+      <c r="B458" s="1">
+        <f>A458</f>
+        <v>401410001</v>
+      </c>
+      <c r="C458" t="s">
+        <v>538</v>
+      </c>
+      <c r="F458" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" s="1">
+        <v>401410002</v>
+      </c>
+      <c r="B459" s="1">
+        <f t="shared" ref="B459:B496" si="30">A459</f>
+        <v>401410002</v>
+      </c>
+      <c r="C459" t="s">
+        <v>172</v>
+      </c>
+      <c r="F459" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" s="1">
+        <v>401410003</v>
+      </c>
+      <c r="B460" s="1">
+        <f t="shared" si="30"/>
+        <v>401410003</v>
+      </c>
+      <c r="C460" t="s">
+        <v>541</v>
+      </c>
+      <c r="F460" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" s="1">
+        <v>401410004</v>
+      </c>
+      <c r="B461" s="1">
+        <f t="shared" si="30"/>
+        <v>401410004</v>
+      </c>
+      <c r="C461" t="s">
+        <v>542</v>
+      </c>
+      <c r="F461" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" s="1">
+        <v>401410005</v>
+      </c>
+      <c r="B462" s="1">
+        <f t="shared" si="30"/>
+        <v>401410005</v>
+      </c>
+      <c r="C462" t="s">
+        <v>543</v>
+      </c>
+      <c r="F462" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" s="1">
+        <v>401410006</v>
+      </c>
+      <c r="B463" s="1">
+        <f t="shared" si="30"/>
+        <v>401410006</v>
+      </c>
+      <c r="C463" t="s">
+        <v>180</v>
+      </c>
+      <c r="F463" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" s="1">
+        <v>401410007</v>
+      </c>
+      <c r="B464" s="1">
+        <f t="shared" si="30"/>
+        <v>401410007</v>
+      </c>
+      <c r="C464" t="s">
+        <v>545</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" s="1">
+        <v>401410008</v>
+      </c>
+      <c r="B465" s="1">
+        <f t="shared" si="30"/>
+        <v>401410008</v>
+      </c>
+      <c r="C465" t="s">
+        <v>546</v>
+      </c>
+      <c r="F465" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" s="1">
+        <v>401410009</v>
+      </c>
+      <c r="B466" s="1">
+        <f t="shared" si="30"/>
+        <v>401410009</v>
+      </c>
+      <c r="C466" t="s">
+        <v>548</v>
+      </c>
+      <c r="F466" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" s="1">
+        <v>401410010</v>
+      </c>
+      <c r="B467" s="1">
+        <f t="shared" si="30"/>
+        <v>401410010</v>
+      </c>
+      <c r="C467" t="s">
+        <v>550</v>
+      </c>
+      <c r="F467" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" s="1">
+        <v>401410011</v>
+      </c>
+      <c r="B468" s="1">
+        <f t="shared" si="30"/>
+        <v>401410011</v>
+      </c>
+      <c r="C468" t="s">
+        <v>551</v>
+      </c>
+      <c r="F468" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" s="1">
+        <v>401410012</v>
+      </c>
+      <c r="B469" s="1">
+        <f t="shared" si="30"/>
+        <v>401410012</v>
+      </c>
+      <c r="C469" t="s">
+        <v>552</v>
+      </c>
+      <c r="F469" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" s="1">
+        <v>401410013</v>
+      </c>
+      <c r="B470" s="1">
+        <f t="shared" si="30"/>
+        <v>401410013</v>
+      </c>
+      <c r="C470" t="s">
+        <v>383</v>
+      </c>
+      <c r="F470" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" s="1">
+        <v>401410014</v>
+      </c>
+      <c r="B471" s="1">
+        <f t="shared" si="30"/>
+        <v>401410014</v>
+      </c>
+      <c r="C471" t="s">
+        <v>554</v>
+      </c>
+      <c r="F471" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" s="1">
+        <v>401410015</v>
+      </c>
+      <c r="B472" s="1">
+        <f t="shared" si="30"/>
+        <v>401410015</v>
+      </c>
+      <c r="C472" t="s">
+        <v>556</v>
+      </c>
+      <c r="F472" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" s="1">
+        <v>401410016</v>
+      </c>
+      <c r="B473" s="1">
+        <f t="shared" si="30"/>
+        <v>401410016</v>
+      </c>
+      <c r="C473" t="s">
+        <v>557</v>
+      </c>
+      <c r="F473" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" s="1">
+        <v>401410017</v>
+      </c>
+      <c r="B474" s="1">
+        <f t="shared" si="30"/>
+        <v>401410017</v>
+      </c>
+      <c r="C474" t="s">
+        <v>559</v>
+      </c>
+      <c r="F474"/>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" s="1">
+        <v>401410018</v>
+      </c>
+      <c r="B475" s="1">
+        <f t="shared" si="30"/>
+        <v>401410018</v>
+      </c>
+      <c r="C475" t="s">
+        <v>345</v>
+      </c>
+      <c r="F475" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476" s="1">
+        <v>401410019</v>
+      </c>
+      <c r="B476" s="1">
+        <f t="shared" si="30"/>
+        <v>401410019</v>
+      </c>
+      <c r="C476" t="s">
+        <v>560</v>
+      </c>
+      <c r="F476" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" s="1">
+        <v>401410020</v>
+      </c>
+      <c r="B477" s="1">
+        <f t="shared" si="30"/>
+        <v>401410020</v>
+      </c>
+      <c r="C477" t="s">
+        <v>561</v>
+      </c>
+      <c r="F477" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" s="1">
+        <v>401410021</v>
+      </c>
+      <c r="B478" s="1">
+        <f t="shared" si="30"/>
+        <v>401410021</v>
+      </c>
+      <c r="C478" t="s">
+        <v>562</v>
+      </c>
+      <c r="F478" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" s="1">
+        <v>401410022</v>
+      </c>
+      <c r="B479" s="1">
+        <f t="shared" si="30"/>
+        <v>401410022</v>
+      </c>
+      <c r="C479" t="s">
+        <v>563</v>
+      </c>
+      <c r="F479" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" s="1">
+        <v>401410023</v>
+      </c>
+      <c r="B480" s="1">
+        <f t="shared" si="30"/>
+        <v>401410023</v>
+      </c>
+      <c r="C480" t="s">
+        <v>564</v>
+      </c>
+      <c r="F480" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" s="1">
+        <v>401410024</v>
+      </c>
+      <c r="B481" s="1">
+        <f t="shared" si="30"/>
+        <v>401410024</v>
+      </c>
+      <c r="C481" t="s">
+        <v>565</v>
+      </c>
+      <c r="F481" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" s="1">
+        <v>401410025</v>
+      </c>
+      <c r="B482" s="1">
+        <f t="shared" si="30"/>
+        <v>401410025</v>
+      </c>
+      <c r="C482" t="s">
+        <v>566</v>
+      </c>
+      <c r="F482" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" s="1">
+        <v>401410026</v>
+      </c>
+      <c r="B483" s="1">
+        <f t="shared" si="30"/>
+        <v>401410026</v>
+      </c>
+      <c r="C483" t="s">
+        <v>567</v>
+      </c>
+      <c r="F483" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" s="1">
+        <v>401410027</v>
+      </c>
+      <c r="B484" s="1">
+        <f t="shared" si="30"/>
+        <v>401410027</v>
+      </c>
+      <c r="C484" t="s">
+        <v>568</v>
+      </c>
+      <c r="F484" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" s="1">
+        <v>401410028</v>
+      </c>
+      <c r="B485" s="1">
+        <f t="shared" si="30"/>
+        <v>401410028</v>
+      </c>
+      <c r="C485" t="s">
+        <v>569</v>
+      </c>
+      <c r="F485" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" s="1">
+        <v>401410029</v>
+      </c>
+      <c r="B486" s="1">
+        <f t="shared" si="30"/>
+        <v>401410029</v>
+      </c>
+      <c r="C486" t="s">
+        <v>570</v>
+      </c>
+      <c r="F486" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" s="1">
+        <v>401410030</v>
+      </c>
+      <c r="B487" s="1">
+        <f t="shared" si="30"/>
+        <v>401410030</v>
+      </c>
+      <c r="C487" t="s">
+        <v>198</v>
+      </c>
+      <c r="F487" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" s="1">
+        <v>401410031</v>
+      </c>
+      <c r="B488" s="1">
+        <f t="shared" si="30"/>
+        <v>401410031</v>
+      </c>
+      <c r="C488" t="s">
+        <v>211</v>
+      </c>
+      <c r="F488" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" s="1">
+        <v>401410032</v>
+      </c>
+      <c r="B489" s="1">
+        <f t="shared" si="30"/>
+        <v>401410032</v>
+      </c>
+      <c r="C489" t="s">
+        <v>217</v>
+      </c>
+      <c r="F489" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" s="1">
+        <v>401410033</v>
+      </c>
+      <c r="B490" s="1">
+        <f t="shared" si="30"/>
+        <v>401410033</v>
+      </c>
+      <c r="C490" t="s">
+        <v>571</v>
+      </c>
+      <c r="F490" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" s="1">
+        <v>401410034</v>
+      </c>
+      <c r="B491" s="1">
+        <f t="shared" si="30"/>
+        <v>401410034</v>
+      </c>
+      <c r="C491" t="s">
+        <v>219</v>
+      </c>
+      <c r="F491" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" s="1">
+        <v>401410035</v>
+      </c>
+      <c r="B492" s="1">
+        <f t="shared" si="30"/>
+        <v>401410035</v>
+      </c>
+      <c r="C492" t="s">
+        <v>572</v>
+      </c>
+      <c r="F492" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" s="1">
+        <v>401410036</v>
+      </c>
+      <c r="B493" s="1">
+        <f t="shared" si="30"/>
+        <v>401410036</v>
+      </c>
+      <c r="C493" t="s">
+        <v>573</v>
+      </c>
+      <c r="F493" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" s="1">
+        <v>401410037</v>
+      </c>
+      <c r="B494" s="1">
+        <f t="shared" si="30"/>
+        <v>401410037</v>
+      </c>
+      <c r="C494" t="s">
+        <v>575</v>
+      </c>
+      <c r="F494" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" s="1">
+        <v>401410038</v>
+      </c>
+      <c r="B495" s="1">
+        <f t="shared" si="30"/>
+        <v>401410038</v>
+      </c>
+      <c r="C495" t="s">
+        <v>576</v>
+      </c>
+      <c r="F495" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="496" spans="3:6">
+      <c r="C496"/>
+      <c r="F496"/>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" s="1">
+        <v>401510001</v>
+      </c>
+      <c r="B497" s="1">
+        <f>A497</f>
+        <v>401510001</v>
+      </c>
+      <c r="C497" t="s">
+        <v>578</v>
+      </c>
+      <c r="F497"/>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" s="1">
+        <v>401510002</v>
+      </c>
+      <c r="B498" s="1">
+        <f t="shared" ref="B498:B525" si="31">A498</f>
+        <v>401510002</v>
+      </c>
+      <c r="C498" t="s">
+        <v>579</v>
+      </c>
+      <c r="F498"/>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" s="1">
+        <v>401510003</v>
+      </c>
+      <c r="B499" s="1">
+        <f t="shared" si="31"/>
+        <v>401510003</v>
+      </c>
+      <c r="C499" t="s">
+        <v>580</v>
+      </c>
+      <c r="F499"/>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" s="1">
+        <v>401510004</v>
+      </c>
+      <c r="B500" s="1">
+        <f t="shared" si="31"/>
+        <v>401510004</v>
+      </c>
+      <c r="C500" t="s">
+        <v>581</v>
+      </c>
+      <c r="F500"/>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" s="1">
+        <v>401510005</v>
+      </c>
+      <c r="B501" s="1">
+        <f t="shared" si="31"/>
+        <v>401510005</v>
+      </c>
+      <c r="C501" t="s">
+        <v>582</v>
+      </c>
+      <c r="F501"/>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" s="1">
+        <v>401510006</v>
+      </c>
+      <c r="B502" s="1">
+        <f t="shared" si="31"/>
+        <v>401510006</v>
+      </c>
+      <c r="C502" t="s">
+        <v>583</v>
+      </c>
+      <c r="F502"/>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" s="1">
+        <v>401510007</v>
+      </c>
+      <c r="B503" s="1">
+        <f t="shared" si="31"/>
+        <v>401510007</v>
+      </c>
+      <c r="C503" t="s">
+        <v>584</v>
+      </c>
+      <c r="F503"/>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" s="1">
+        <v>401510008</v>
+      </c>
+      <c r="B504" s="1">
+        <f t="shared" si="31"/>
+        <v>401510008</v>
+      </c>
+      <c r="C504" t="s">
+        <v>585</v>
+      </c>
+      <c r="F504"/>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="1">
+        <v>401510009</v>
+      </c>
+      <c r="B505" s="1">
+        <f t="shared" si="31"/>
+        <v>401510009</v>
+      </c>
+      <c r="C505" t="s">
+        <v>586</v>
+      </c>
+      <c r="F505"/>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" s="1">
+        <v>401510010</v>
+      </c>
+      <c r="B506" s="1">
+        <f t="shared" si="31"/>
+        <v>401510010</v>
+      </c>
+      <c r="C506" t="s">
+        <v>587</v>
+      </c>
+      <c r="F506"/>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" s="1">
+        <v>401510011</v>
+      </c>
+      <c r="B507" s="1">
+        <f t="shared" si="31"/>
+        <v>401510011</v>
+      </c>
+      <c r="C507" t="s">
+        <v>588</v>
+      </c>
+      <c r="F507"/>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" s="1">
+        <v>401510012</v>
+      </c>
+      <c r="B508" s="1">
+        <f t="shared" si="31"/>
+        <v>401510012</v>
+      </c>
+      <c r="C508" t="s">
+        <v>589</v>
+      </c>
+      <c r="F508"/>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" s="1">
+        <v>401510013</v>
+      </c>
+      <c r="B509" s="1">
+        <f t="shared" si="31"/>
+        <v>401510013</v>
+      </c>
+      <c r="C509" t="s">
+        <v>590</v>
+      </c>
+      <c r="F509"/>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" s="1">
+        <v>401510014</v>
+      </c>
+      <c r="B510" s="1">
+        <f t="shared" si="31"/>
+        <v>401510014</v>
+      </c>
+      <c r="C510" t="s">
+        <v>591</v>
+      </c>
+      <c r="F510"/>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" s="1">
+        <v>401510015</v>
+      </c>
+      <c r="B511" s="1">
+        <f t="shared" si="31"/>
+        <v>401510015</v>
+      </c>
+      <c r="C511" t="s">
+        <v>592</v>
+      </c>
+      <c r="F511"/>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" s="1">
+        <v>401510016</v>
+      </c>
+      <c r="B512" s="1">
+        <f t="shared" si="31"/>
+        <v>401510016</v>
+      </c>
+      <c r="C512" t="s">
+        <v>593</v>
+      </c>
+      <c r="F512"/>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" s="1">
+        <v>401510017</v>
+      </c>
+      <c r="B513" s="1">
+        <f t="shared" si="31"/>
+        <v>401510017</v>
+      </c>
+      <c r="C513" t="s">
+        <v>594</v>
+      </c>
+      <c r="F513" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" s="1">
+        <v>401510018</v>
+      </c>
+      <c r="B514" s="1">
+        <f t="shared" si="31"/>
+        <v>401510018</v>
+      </c>
+      <c r="C514" t="s">
+        <v>596</v>
+      </c>
+      <c r="F514" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515" s="1">
+        <v>401510019</v>
+      </c>
+      <c r="B515" s="1">
+        <f t="shared" si="31"/>
+        <v>401510019</v>
+      </c>
+      <c r="C515" t="s">
+        <v>598</v>
+      </c>
+      <c r="F515" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" s="1">
+        <v>401510020</v>
+      </c>
+      <c r="B516" s="1">
+        <f t="shared" si="31"/>
+        <v>401510020</v>
+      </c>
+      <c r="C516" t="s">
+        <v>600</v>
+      </c>
+      <c r="F516" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" s="1">
+        <v>401510021</v>
+      </c>
+      <c r="B517" s="1">
+        <f t="shared" si="31"/>
+        <v>401510021</v>
+      </c>
+      <c r="C517" t="s">
+        <v>601</v>
+      </c>
+      <c r="F517" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" s="1">
+        <v>401510022</v>
+      </c>
+      <c r="B518" s="1">
+        <f t="shared" si="31"/>
+        <v>401510022</v>
+      </c>
+      <c r="C518" t="s">
+        <v>602</v>
+      </c>
+      <c r="F518" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" s="1">
+        <v>401510023</v>
+      </c>
+      <c r="B519" s="1">
+        <f t="shared" si="31"/>
+        <v>401510023</v>
+      </c>
+      <c r="C519" t="s">
+        <v>604</v>
+      </c>
+      <c r="F519" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520" s="1">
+        <v>401510024</v>
+      </c>
+      <c r="B520" s="1">
+        <f t="shared" si="31"/>
+        <v>401510024</v>
+      </c>
+      <c r="C520" t="s">
+        <v>605</v>
+      </c>
+      <c r="F520" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521" s="1">
+        <v>401510025</v>
+      </c>
+      <c r="B521" s="1">
+        <f t="shared" si="31"/>
+        <v>401510025</v>
+      </c>
+      <c r="C521" t="s">
+        <v>606</v>
+      </c>
+      <c r="F521" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" s="1">
+        <v>401510026</v>
+      </c>
+      <c r="B522" s="1">
+        <f t="shared" si="31"/>
+        <v>401510026</v>
+      </c>
+      <c r="C522" t="s">
+        <v>607</v>
+      </c>
+      <c r="F522" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="A523" s="1">
+        <v>401510027</v>
+      </c>
+      <c r="B523" s="1">
+        <f t="shared" si="31"/>
+        <v>401510027</v>
+      </c>
+      <c r="C523" t="s">
+        <v>608</v>
+      </c>
+      <c r="F523" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="A524" s="1">
+        <v>401510028</v>
+      </c>
+      <c r="B524" s="1">
+        <f t="shared" si="31"/>
+        <v>401510028</v>
+      </c>
+      <c r="C524" t="s">
+        <v>609</v>
+      </c>
+      <c r="F524" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" s="1">
+        <v>401510029</v>
+      </c>
+      <c r="B525" s="1">
+        <f t="shared" si="31"/>
+        <v>401510029</v>
+      </c>
+      <c r="C525" t="s">
+        <v>611</v>
+      </c>
+      <c r="F525" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" s="1">
+        <v>401510030</v>
+      </c>
+      <c r="B526" s="1">
+        <f t="shared" ref="B526:B545" si="32">A526</f>
+        <v>401510030</v>
+      </c>
+      <c r="C526" t="s">
+        <v>612</v>
+      </c>
+      <c r="F526" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" s="1">
+        <v>401510031</v>
+      </c>
+      <c r="B527" s="1">
+        <f t="shared" si="32"/>
+        <v>401510031</v>
+      </c>
+      <c r="C527" t="s">
+        <v>613</v>
+      </c>
+      <c r="F527" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528" s="1">
+        <v>401510032</v>
+      </c>
+      <c r="B528" s="1">
+        <f t="shared" si="32"/>
+        <v>401510032</v>
+      </c>
+      <c r="C528" t="s">
+        <v>614</v>
+      </c>
+      <c r="F528" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
+      <c r="A529" s="1">
+        <v>401510033</v>
+      </c>
+      <c r="B529" s="1">
+        <f t="shared" si="32"/>
+        <v>401510033</v>
+      </c>
+      <c r="C529" t="s">
+        <v>615</v>
+      </c>
+      <c r="F529" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530" s="1">
+        <v>401510034</v>
+      </c>
+      <c r="B530" s="1">
+        <f t="shared" si="32"/>
+        <v>401510034</v>
+      </c>
+      <c r="C530" t="s">
+        <v>616</v>
+      </c>
+      <c r="F530" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531" s="1">
+        <v>401510035</v>
+      </c>
+      <c r="B531" s="1">
+        <f t="shared" si="32"/>
+        <v>401510035</v>
+      </c>
+      <c r="C531" t="s">
+        <v>618</v>
+      </c>
+      <c r="F531" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532" s="1">
+        <v>401510036</v>
+      </c>
+      <c r="B532" s="1">
+        <f t="shared" si="32"/>
+        <v>401510036</v>
+      </c>
+      <c r="C532" t="s">
+        <v>619</v>
+      </c>
+      <c r="F532" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533" s="1">
+        <v>401510037</v>
+      </c>
+      <c r="B533" s="1">
+        <f t="shared" si="32"/>
+        <v>401510037</v>
+      </c>
+      <c r="C533" t="s">
+        <v>621</v>
+      </c>
+      <c r="F533" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" s="1">
+        <v>401510038</v>
+      </c>
+      <c r="B534" s="1">
+        <f t="shared" si="32"/>
+        <v>401510038</v>
+      </c>
+      <c r="C534" t="s">
+        <v>622</v>
+      </c>
+      <c r="F534" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535" s="1">
+        <v>401510039</v>
+      </c>
+      <c r="B535" s="1">
+        <f t="shared" si="32"/>
+        <v>401510039</v>
+      </c>
+      <c r="C535" t="s">
+        <v>624</v>
+      </c>
+      <c r="F535" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
+      <c r="A536" s="1">
+        <v>401510040</v>
+      </c>
+      <c r="B536" s="1">
+        <f t="shared" si="32"/>
+        <v>401510040</v>
+      </c>
+      <c r="C536" t="s">
+        <v>626</v>
+      </c>
+      <c r="F536" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
+      <c r="A537" s="1">
+        <v>401510041</v>
+      </c>
+      <c r="B537" s="1">
+        <f t="shared" si="32"/>
+        <v>401510041</v>
+      </c>
+      <c r="C537" t="s">
+        <v>628</v>
+      </c>
+      <c r="F537" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
+      <c r="A538" s="1">
+        <v>401510042</v>
+      </c>
+      <c r="B538" s="1">
+        <f t="shared" si="32"/>
+        <v>401510042</v>
+      </c>
+      <c r="C538" t="s">
+        <v>630</v>
+      </c>
+      <c r="F538" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
+      <c r="A539" s="1">
+        <v>401510043</v>
+      </c>
+      <c r="B539" s="1">
+        <f t="shared" si="32"/>
+        <v>401510043</v>
+      </c>
+      <c r="C539" t="s">
+        <v>631</v>
+      </c>
+      <c r="F539" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="A540" s="1">
+        <v>401510044</v>
+      </c>
+      <c r="B540" s="1">
+        <f t="shared" si="32"/>
+        <v>401510044</v>
+      </c>
+      <c r="C540" t="s">
+        <v>632</v>
+      </c>
+      <c r="F540"/>
+    </row>
+    <row r="541" spans="3:6">
+      <c r="C541"/>
+      <c r="F541"/>
+    </row>
+    <row r="542" spans="1:6">
+      <c r="A542" s="1">
+        <v>401610001</v>
+      </c>
+      <c r="B542" s="1">
+        <f>A542</f>
+        <v>401610001</v>
+      </c>
+      <c r="C542" t="s">
+        <v>633</v>
+      </c>
+      <c r="F542"/>
+    </row>
+    <row r="543" spans="1:6">
+      <c r="A543" s="1">
+        <v>401610002</v>
+      </c>
+      <c r="B543" s="1">
+        <f>A543</f>
+        <v>401610002</v>
+      </c>
+      <c r="C543" t="s">
+        <v>634</v>
+      </c>
+      <c r="F543"/>
+    </row>
+    <row r="544" spans="1:6">
+      <c r="A544" s="1">
+        <v>401610003</v>
+      </c>
+      <c r="B544" s="1">
+        <f>A544</f>
+        <v>401610003</v>
+      </c>
+      <c r="C544" t="s">
+        <v>635</v>
+      </c>
+      <c r="F544"/>
+    </row>
+    <row r="545" spans="1:6">
+      <c r="A545" s="1">
+        <v>401610004</v>
+      </c>
+      <c r="B545" s="1">
+        <f>A545</f>
+        <v>401610004</v>
+      </c>
+      <c r="C545" t="s">
+        <v>636</v>
+      </c>
+      <c r="F545"/>
+    </row>
+    <row r="546" spans="1:6">
+      <c r="A546" s="1">
+        <v>401610005</v>
+      </c>
+      <c r="B546" s="1">
+        <f>A546</f>
+        <v>401610005</v>
+      </c>
+      <c r="C546" t="s">
+        <v>637</v>
+      </c>
+      <c r="F546"/>
+    </row>
+    <row r="547" spans="1:6">
+      <c r="A547" s="1">
+        <v>401610006</v>
+      </c>
+      <c r="B547" s="1">
+        <f>A547</f>
+        <v>401610006</v>
+      </c>
+      <c r="C547" t="s">
+        <v>638</v>
+      </c>
+      <c r="F547"/>
+    </row>
+    <row r="548" spans="1:6">
+      <c r="A548" s="1">
+        <v>401610007</v>
+      </c>
+      <c r="B548" s="1">
+        <f>A548</f>
+        <v>401610007</v>
+      </c>
+      <c r="C548" t="s">
+        <v>639</v>
+      </c>
+      <c r="F548"/>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" s="1">
+        <v>401610008</v>
+      </c>
+      <c r="B549" s="1">
+        <f>A549</f>
+        <v>401610008</v>
+      </c>
+      <c r="C549" t="s">
+        <v>640</v>
+      </c>
+      <c r="F549"/>
+    </row>
+    <row r="550" spans="3:6">
+      <c r="C550"/>
+      <c r="F550"/>
+    </row>
+    <row r="551" spans="1:6">
+      <c r="A551" s="1">
+        <v>401710001</v>
+      </c>
+      <c r="B551" s="1">
+        <f>A551</f>
+        <v>401710001</v>
+      </c>
+      <c r="C551" t="s">
+        <v>641</v>
+      </c>
+      <c r="F551" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" s="1">
+        <v>401710002</v>
+      </c>
+      <c r="B552" s="1">
+        <f t="shared" ref="B552:B569" si="33">A552</f>
+        <v>401710002</v>
+      </c>
+      <c r="C552" t="s">
+        <v>642</v>
+      </c>
+      <c r="F552" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
+      <c r="A553" s="1">
+        <v>401710003</v>
+      </c>
+      <c r="B553" s="1">
+        <f t="shared" si="33"/>
+        <v>401710003</v>
+      </c>
+      <c r="C553" t="s">
+        <v>643</v>
+      </c>
+      <c r="F553" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" s="1">
+        <v>401710004</v>
+      </c>
+      <c r="B554" s="1">
+        <f t="shared" si="33"/>
+        <v>401710004</v>
+      </c>
+      <c r="C554" t="s">
+        <v>644</v>
+      </c>
+      <c r="F554" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555" s="1">
+        <v>401710005</v>
+      </c>
+      <c r="B555" s="1">
+        <f t="shared" si="33"/>
+        <v>401710005</v>
+      </c>
+      <c r="C555" t="s">
+        <v>645</v>
+      </c>
+      <c r="F555" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556" s="1">
+        <v>401710006</v>
+      </c>
+      <c r="B556" s="1">
+        <f t="shared" si="33"/>
+        <v>401710006</v>
+      </c>
+      <c r="C556" t="s">
+        <v>646</v>
+      </c>
+      <c r="F556"/>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557" s="1">
+        <v>401710007</v>
+      </c>
+      <c r="B557" s="1">
+        <f t="shared" si="33"/>
+        <v>401710007</v>
+      </c>
+      <c r="C557" t="s">
+        <v>647</v>
+      </c>
+      <c r="F557"/>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="A558" s="1">
+        <v>401710008</v>
+      </c>
+      <c r="B558" s="1">
+        <f t="shared" si="33"/>
+        <v>401710008</v>
+      </c>
+      <c r="C558" t="s">
+        <v>648</v>
+      </c>
+      <c r="F558" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6">
+      <c r="A559" s="1">
+        <v>401710009</v>
+      </c>
+      <c r="B559" s="1">
+        <f t="shared" si="33"/>
+        <v>401710009</v>
+      </c>
+      <c r="C559" t="s">
+        <v>649</v>
+      </c>
+      <c r="F559" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="A560" s="1">
+        <v>401710010</v>
+      </c>
+      <c r="B560" s="1">
+        <f t="shared" si="33"/>
+        <v>401710010</v>
+      </c>
+      <c r="C560" t="s">
+        <v>650</v>
+      </c>
+      <c r="F560" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="A561" s="1">
+        <v>401710011</v>
+      </c>
+      <c r="B561" s="1">
+        <f t="shared" si="33"/>
+        <v>401710011</v>
+      </c>
+      <c r="C561" t="s">
+        <v>651</v>
+      </c>
+      <c r="F561" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6">
+      <c r="A562" s="1">
+        <v>401710012</v>
+      </c>
+      <c r="B562" s="1">
+        <f t="shared" si="33"/>
+        <v>401710012</v>
+      </c>
+      <c r="C562" t="s">
+        <v>336</v>
+      </c>
+      <c r="F562" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="A563" s="1">
+        <v>401710013</v>
+      </c>
+      <c r="B563" s="1">
+        <f t="shared" si="33"/>
+        <v>401710013</v>
+      </c>
+      <c r="C563" t="s">
+        <v>652</v>
+      </c>
+      <c r="F563" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564" s="1">
+        <v>401710014</v>
+      </c>
+      <c r="B564" s="1">
+        <f t="shared" si="33"/>
+        <v>401710014</v>
+      </c>
+      <c r="C564" t="s">
+        <v>653</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565" s="1">
+        <v>401710015</v>
+      </c>
+      <c r="B565" s="1">
+        <f t="shared" si="33"/>
+        <v>401710015</v>
+      </c>
+      <c r="C565" t="s">
+        <v>362</v>
+      </c>
+      <c r="F565" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6">
+      <c r="A566" s="1">
+        <v>401710016</v>
+      </c>
+      <c r="B566" s="1">
+        <f t="shared" si="33"/>
+        <v>401710016</v>
+      </c>
+      <c r="C566" t="s">
+        <v>361</v>
+      </c>
+      <c r="F566" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6">
+      <c r="A567" s="1">
+        <v>401710017</v>
+      </c>
+      <c r="B567" s="1">
+        <f t="shared" si="33"/>
+        <v>401710017</v>
+      </c>
+      <c r="C567" t="s">
+        <v>654</v>
+      </c>
+      <c r="F567" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6">
+      <c r="A568" s="1">
+        <v>401710018</v>
+      </c>
+      <c r="B568" s="1">
+        <f t="shared" si="33"/>
+        <v>401710018</v>
+      </c>
+      <c r="C568" t="s">
+        <v>655</v>
+      </c>
+      <c r="F568" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569" s="1">
+        <v>401710019</v>
+      </c>
+      <c r="B569" s="1">
+        <f t="shared" si="33"/>
+        <v>401710019</v>
+      </c>
+      <c r="C569" t="s">
+        <v>656</v>
+      </c>
+      <c r="F569" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6">
+      <c r="A570" s="1">
+        <v>401710020</v>
+      </c>
+      <c r="B570" s="1">
+        <f>A570</f>
+        <v>401710020</v>
+      </c>
+      <c r="C570" t="s">
+        <v>657</v>
+      </c>
+      <c r="F570" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6">
+      <c r="A571" s="1">
+        <v>401710021</v>
+      </c>
+      <c r="B571" s="1">
+        <f>A571</f>
+        <v>401710021</v>
+      </c>
+      <c r="C571" t="s">
+        <v>658</v>
+      </c>
+      <c r="F571" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6">
+      <c r="A572" s="1">
+        <v>401710022</v>
+      </c>
+      <c r="B572" s="1">
+        <f>A572</f>
+        <v>401710022</v>
+      </c>
+      <c r="C572" t="s">
+        <v>659</v>
+      </c>
+      <c r="F572" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6">
+      <c r="A573" s="1">
+        <v>401710023</v>
+      </c>
+      <c r="B573" s="1">
+        <f>A573</f>
+        <v>401710023</v>
+      </c>
+      <c r="C573" t="s">
+        <v>661</v>
+      </c>
+      <c r="F573"/>
+    </row>
+    <row r="574" spans="3:3">
+      <c r="C574" s="3"/>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="1">
+        <v>500110001</v>
+      </c>
+      <c r="B575" s="1">
+        <f>A575</f>
+        <v>500110001</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="1">
+        <v>500110002</v>
+      </c>
+      <c r="B576" s="1">
+        <f>A576</f>
+        <v>500110002</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="1">
+        <v>500210001</v>
+      </c>
+      <c r="B578" s="1">
+        <f>A578</f>
+        <v>500210001</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="1">
+        <v>600110001</v>
+      </c>
+      <c r="B580" s="1">
+        <f t="shared" ref="B580:B585" si="34">A580</f>
+        <v>600110001</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6">
+      <c r="A581" s="1">
+        <v>600110002</v>
+      </c>
+      <c r="B581" s="1">
+        <f t="shared" si="34"/>
+        <v>600110002</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="1">
+        <v>600190001</v>
+      </c>
+      <c r="B582" s="1">
+        <f t="shared" si="34"/>
+        <v>600190001</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6">
+      <c r="A583" s="1">
+        <v>600110003</v>
+      </c>
+      <c r="B583" s="1">
+        <f t="shared" si="34"/>
+        <v>600110003</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6">
+      <c r="A584" s="1">
+        <v>600110004</v>
+      </c>
+      <c r="B584" s="1">
+        <f t="shared" si="34"/>
+        <v>600110004</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6">
+      <c r="A585" s="1">
+        <v>600110005</v>
+      </c>
+      <c r="B585" s="1">
+        <f t="shared" si="34"/>
+        <v>600110005</v>
+      </c>
+      <c r="C585" t="s">
+        <v>678</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="740">
   <si>
     <t>@default</t>
   </si>
@@ -2002,6 +2002,150 @@
     <t>姬乙</t>
   </si>
   <si>
+    <t>趙武</t>
+  </si>
+  <si>
+    <t>文子</t>
+  </si>
+  <si>
+    <t>景叔</t>
+  </si>
+  <si>
+    <t>趙鞅</t>
+  </si>
+  <si>
+    <t>簡子</t>
+  </si>
+  <si>
+    <t>趙毋䘏</t>
+  </si>
+  <si>
+    <t>襄子</t>
+  </si>
+  <si>
+    <t>趙浣</t>
+  </si>
+  <si>
+    <t>桓子</t>
+  </si>
+  <si>
+    <t>趙籍</t>
+  </si>
+  <si>
+    <t>烈侯</t>
+  </si>
+  <si>
+    <t>趙章</t>
+  </si>
+  <si>
+    <t>敬侯</t>
+  </si>
+  <si>
+    <t>趙種</t>
+  </si>
+  <si>
+    <t>肃侯</t>
+  </si>
+  <si>
+    <t>武靈王</t>
+  </si>
+  <si>
+    <t>趙何</t>
+  </si>
+  <si>
+    <t>惠文王</t>
+  </si>
+  <si>
+    <t>趙丹</t>
+  </si>
+  <si>
+    <t>孝成王</t>
+  </si>
+  <si>
+    <t>趙偃</t>
+  </si>
+  <si>
+    <t>悼襄王</t>
+  </si>
+  <si>
+    <t>趙遷</t>
+  </si>
+  <si>
+    <t>幽繆王</t>
+  </si>
+  <si>
+    <t>趙嘉</t>
+  </si>
+  <si>
+    <t>擊</t>
+  </si>
+  <si>
+    <t>罃</t>
+  </si>
+  <si>
+    <t>安釐王</t>
+  </si>
+  <si>
+    <t>增</t>
+  </si>
+  <si>
+    <t>景湣王</t>
+  </si>
+  <si>
+    <t>假</t>
+  </si>
+  <si>
+    <t>虔</t>
+  </si>
+  <si>
+    <t>取</t>
+  </si>
+  <si>
+    <t>列侯</t>
+  </si>
+  <si>
+    <t>懿侯</t>
+  </si>
+  <si>
+    <t>宣惠王</t>
+  </si>
+  <si>
+    <t>倉</t>
+  </si>
+  <si>
+    <t>咎</t>
+  </si>
+  <si>
+    <t>桓惠王</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>太公</t>
+  </si>
+  <si>
+    <t>午</t>
+  </si>
+  <si>
+    <t>因齊</t>
+  </si>
+  <si>
+    <t>辟彊</t>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>湣王</t>
+  </si>
+  <si>
+    <t>法章</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
     <t>嬴政</t>
   </si>
   <si>
@@ -2054,6 +2198,42 @@
   </si>
   <si>
     <t>孝武帝</t>
+  </si>
+  <si>
+    <t>劉弗陵</t>
+  </si>
+  <si>
+    <t>孝昭帝</t>
+  </si>
+  <si>
+    <t>劉詢</t>
+  </si>
+  <si>
+    <t>孝宣帝</t>
+  </si>
+  <si>
+    <t>劉奭</t>
+  </si>
+  <si>
+    <t>孝元帝</t>
+  </si>
+  <si>
+    <t>劉驁</t>
+  </si>
+  <si>
+    <t>孝成帝</t>
+  </si>
+  <si>
+    <t>劉欣</t>
+  </si>
+  <si>
+    <t>孝哀帝</t>
+  </si>
+  <si>
+    <t>劉衎</t>
+  </si>
+  <si>
+    <t>孝平帝</t>
   </si>
 </sst>
 </file>
@@ -3013,10 +3193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X585"/>
+  <dimension ref="A1:X639"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A555" workbookViewId="0">
-      <selection activeCell="C573" sqref="C573"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A620" workbookViewId="0">
+      <selection activeCell="F639" sqref="F639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -10843,7 +11023,7 @@
         <v>401610001</v>
       </c>
       <c r="B542" s="1">
-        <f>A542</f>
+        <f t="shared" ref="B542:B549" si="33">A542</f>
         <v>401610001</v>
       </c>
       <c r="C542" t="s">
@@ -10856,7 +11036,7 @@
         <v>401610002</v>
       </c>
       <c r="B543" s="1">
-        <f>A543</f>
+        <f t="shared" si="33"/>
         <v>401610002</v>
       </c>
       <c r="C543" t="s">
@@ -10869,7 +11049,7 @@
         <v>401610003</v>
       </c>
       <c r="B544" s="1">
-        <f>A544</f>
+        <f t="shared" si="33"/>
         <v>401610003</v>
       </c>
       <c r="C544" t="s">
@@ -10882,7 +11062,7 @@
         <v>401610004</v>
       </c>
       <c r="B545" s="1">
-        <f>A545</f>
+        <f t="shared" si="33"/>
         <v>401610004</v>
       </c>
       <c r="C545" t="s">
@@ -10895,7 +11075,7 @@
         <v>401610005</v>
       </c>
       <c r="B546" s="1">
-        <f>A546</f>
+        <f t="shared" si="33"/>
         <v>401610005</v>
       </c>
       <c r="C546" t="s">
@@ -10908,7 +11088,7 @@
         <v>401610006</v>
       </c>
       <c r="B547" s="1">
-        <f>A547</f>
+        <f t="shared" si="33"/>
         <v>401610006</v>
       </c>
       <c r="C547" t="s">
@@ -10921,7 +11101,7 @@
         <v>401610007</v>
       </c>
       <c r="B548" s="1">
-        <f>A548</f>
+        <f t="shared" si="33"/>
         <v>401610007</v>
       </c>
       <c r="C548" t="s">
@@ -10934,7 +11114,7 @@
         <v>401610008</v>
       </c>
       <c r="B549" s="1">
-        <f>A549</f>
+        <f t="shared" si="33"/>
         <v>401610008</v>
       </c>
       <c r="C549" t="s">
@@ -10966,7 +11146,7 @@
         <v>401710002</v>
       </c>
       <c r="B552" s="1">
-        <f t="shared" ref="B552:B569" si="33">A552</f>
+        <f t="shared" ref="B552:B573" si="34">A552</f>
         <v>401710002</v>
       </c>
       <c r="C552" t="s">
@@ -10981,7 +11161,7 @@
         <v>401710003</v>
       </c>
       <c r="B553" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710003</v>
       </c>
       <c r="C553" t="s">
@@ -10996,7 +11176,7 @@
         <v>401710004</v>
       </c>
       <c r="B554" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710004</v>
       </c>
       <c r="C554" t="s">
@@ -11011,7 +11191,7 @@
         <v>401710005</v>
       </c>
       <c r="B555" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710005</v>
       </c>
       <c r="C555" t="s">
@@ -11026,7 +11206,7 @@
         <v>401710006</v>
       </c>
       <c r="B556" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710006</v>
       </c>
       <c r="C556" t="s">
@@ -11039,7 +11219,7 @@
         <v>401710007</v>
       </c>
       <c r="B557" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710007</v>
       </c>
       <c r="C557" t="s">
@@ -11052,7 +11232,7 @@
         <v>401710008</v>
       </c>
       <c r="B558" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710008</v>
       </c>
       <c r="C558" t="s">
@@ -11067,7 +11247,7 @@
         <v>401710009</v>
       </c>
       <c r="B559" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710009</v>
       </c>
       <c r="C559" t="s">
@@ -11082,7 +11262,7 @@
         <v>401710010</v>
       </c>
       <c r="B560" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710010</v>
       </c>
       <c r="C560" t="s">
@@ -11097,7 +11277,7 @@
         <v>401710011</v>
       </c>
       <c r="B561" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710011</v>
       </c>
       <c r="C561" t="s">
@@ -11112,7 +11292,7 @@
         <v>401710012</v>
       </c>
       <c r="B562" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710012</v>
       </c>
       <c r="C562" t="s">
@@ -11127,7 +11307,7 @@
         <v>401710013</v>
       </c>
       <c r="B563" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710013</v>
       </c>
       <c r="C563" t="s">
@@ -11142,7 +11322,7 @@
         <v>401710014</v>
       </c>
       <c r="B564" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710014</v>
       </c>
       <c r="C564" t="s">
@@ -11157,7 +11337,7 @@
         <v>401710015</v>
       </c>
       <c r="B565" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710015</v>
       </c>
       <c r="C565" t="s">
@@ -11172,7 +11352,7 @@
         <v>401710016</v>
       </c>
       <c r="B566" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710016</v>
       </c>
       <c r="C566" t="s">
@@ -11187,7 +11367,7 @@
         <v>401710017</v>
       </c>
       <c r="B567" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710017</v>
       </c>
       <c r="C567" t="s">
@@ -11202,7 +11382,7 @@
         <v>401710018</v>
       </c>
       <c r="B568" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710018</v>
       </c>
       <c r="C568" t="s">
@@ -11217,7 +11397,7 @@
         <v>401710019</v>
       </c>
       <c r="B569" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401710019</v>
       </c>
       <c r="C569" t="s">
@@ -11232,7 +11412,7 @@
         <v>401710020</v>
       </c>
       <c r="B570" s="1">
-        <f>A570</f>
+        <f t="shared" si="34"/>
         <v>401710020</v>
       </c>
       <c r="C570" t="s">
@@ -11247,7 +11427,7 @@
         <v>401710021</v>
       </c>
       <c r="B571" s="1">
-        <f>A571</f>
+        <f t="shared" si="34"/>
         <v>401710021</v>
       </c>
       <c r="C571" t="s">
@@ -11262,7 +11442,7 @@
         <v>401710022</v>
       </c>
       <c r="B572" s="1">
-        <f>A572</f>
+        <f t="shared" si="34"/>
         <v>401710022</v>
       </c>
       <c r="C572" t="s">
@@ -11277,7 +11457,7 @@
         <v>401710023</v>
       </c>
       <c r="B573" s="1">
-        <f>A573</f>
+        <f t="shared" si="34"/>
         <v>401710023</v>
       </c>
       <c r="C573" t="s">
@@ -11285,142 +11465,868 @@
       </c>
       <c r="F573"/>
     </row>
-    <row r="574" spans="3:3">
-      <c r="C574" s="3"/>
-    </row>
-    <row r="575" spans="1:4">
+    <row r="574" spans="3:6">
+      <c r="C574"/>
+      <c r="F574"/>
+    </row>
+    <row r="575" spans="1:6">
       <c r="A575" s="1">
-        <v>500110001</v>
+        <v>401810001</v>
       </c>
       <c r="B575" s="1">
         <f>A575</f>
-        <v>500110001</v>
-      </c>
-      <c r="C575" s="1" t="s">
+        <v>401810001</v>
+      </c>
+      <c r="C575" t="s">
         <v>662</v>
       </c>
-      <c r="D575" s="1" t="s">
+      <c r="F575" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:6">
       <c r="A576" s="1">
-        <v>500110002</v>
+        <v>401810002</v>
       </c>
       <c r="B576" s="1">
-        <f>A576</f>
-        <v>500110002</v>
-      </c>
-      <c r="C576" s="1" t="s">
+        <f t="shared" ref="B576:B593" si="35">A576</f>
+        <v>401810002</v>
+      </c>
+      <c r="C576"/>
+      <c r="F576" t="s">
         <v>664</v>
       </c>
-      <c r="D576" s="1" t="s">
+    </row>
+    <row r="577" spans="1:6">
+      <c r="A577" s="1">
+        <v>401810003</v>
+      </c>
+      <c r="B577" s="1">
+        <f t="shared" si="35"/>
+        <v>401810003</v>
+      </c>
+      <c r="C577" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="578" spans="1:4">
+      <c r="F577" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6">
       <c r="A578" s="1">
-        <v>500210001</v>
+        <v>401810004</v>
       </c>
       <c r="B578" s="1">
-        <f>A578</f>
-        <v>500210001</v>
-      </c>
-      <c r="C578" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D578" s="1" t="s">
+        <f t="shared" si="35"/>
+        <v>401810004</v>
+      </c>
+      <c r="C578" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="580" spans="1:4">
+      <c r="F578" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6">
+      <c r="A579" s="1">
+        <v>401810005</v>
+      </c>
+      <c r="B579" s="1">
+        <f t="shared" si="35"/>
+        <v>401810005</v>
+      </c>
+      <c r="C579" t="s">
+        <v>669</v>
+      </c>
+      <c r="F579" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6">
       <c r="A580" s="1">
-        <v>600110001</v>
+        <v>401810006</v>
       </c>
       <c r="B580" s="1">
-        <f t="shared" ref="B580:B585" si="34">A580</f>
-        <v>600110001</v>
-      </c>
-      <c r="C580" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D580" s="1" t="s">
-        <v>669</v>
+        <f t="shared" si="35"/>
+        <v>401810006</v>
+      </c>
+      <c r="C580"/>
+      <c r="F580" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="581" spans="1:6">
       <c r="A581" s="1">
-        <v>600110002</v>
+        <v>401810007</v>
       </c>
       <c r="B581" s="1">
-        <f t="shared" si="34"/>
-        <v>600110002</v>
-      </c>
-      <c r="C581" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="F581" s="1" t="s">
+        <f t="shared" si="35"/>
+        <v>401810007</v>
+      </c>
+      <c r="C581" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="582" spans="1:4">
+      <c r="F581" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6">
       <c r="A582" s="1">
-        <v>600190001</v>
+        <v>401810008</v>
       </c>
       <c r="B582" s="1">
-        <f t="shared" si="34"/>
-        <v>600190001</v>
-      </c>
-      <c r="C582" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D582" s="1" t="s">
-        <v>673</v>
+        <f t="shared" si="35"/>
+        <v>401810008</v>
+      </c>
+      <c r="C582"/>
+      <c r="F582" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="583" spans="1:6">
       <c r="A583" s="1">
-        <v>600110003</v>
+        <v>401810009</v>
       </c>
       <c r="B583" s="1">
-        <f t="shared" si="34"/>
-        <v>600110003</v>
-      </c>
-      <c r="C583" s="1" t="s">
+        <f t="shared" si="35"/>
+        <v>401810009</v>
+      </c>
+      <c r="C583" t="s">
+        <v>673</v>
+      </c>
+      <c r="F583" t="s">
         <v>674</v>
-      </c>
-      <c r="F583" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="584" spans="1:6">
       <c r="A584" s="1">
-        <v>600110004</v>
+        <v>401810010</v>
       </c>
       <c r="B584" s="1">
-        <f t="shared" si="34"/>
-        <v>600110004</v>
-      </c>
-      <c r="C584" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F584" s="1" t="s">
-        <v>677</v>
+        <f t="shared" si="35"/>
+        <v>401810010</v>
+      </c>
+      <c r="C584" t="s">
+        <v>675</v>
+      </c>
+      <c r="F584" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="585" spans="1:6">
       <c r="A585" s="1">
+        <v>401810011</v>
+      </c>
+      <c r="B585" s="1">
+        <f t="shared" si="35"/>
+        <v>401810011</v>
+      </c>
+      <c r="C585"/>
+      <c r="F585" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6">
+      <c r="A586" s="1">
+        <v>401810012</v>
+      </c>
+      <c r="B586" s="1">
+        <f t="shared" si="35"/>
+        <v>401810012</v>
+      </c>
+      <c r="C586"/>
+      <c r="F586" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
+      <c r="A587" s="1">
+        <v>401810013</v>
+      </c>
+      <c r="B587" s="1">
+        <f t="shared" si="35"/>
+        <v>401810013</v>
+      </c>
+      <c r="C587" t="s">
+        <v>678</v>
+      </c>
+      <c r="F587" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6">
+      <c r="A588" s="1">
+        <v>401810014</v>
+      </c>
+      <c r="B588" s="1">
+        <f t="shared" si="35"/>
+        <v>401810014</v>
+      </c>
+      <c r="C588" t="s">
+        <v>680</v>
+      </c>
+      <c r="F588" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6">
+      <c r="A589" s="1">
+        <v>401810015</v>
+      </c>
+      <c r="B589" s="1">
+        <f t="shared" si="35"/>
+        <v>401810015</v>
+      </c>
+      <c r="C589" t="s">
+        <v>682</v>
+      </c>
+      <c r="F589" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6">
+      <c r="A590" s="1">
+        <v>401810016</v>
+      </c>
+      <c r="B590" s="1">
+        <f t="shared" si="35"/>
+        <v>401810016</v>
+      </c>
+      <c r="C590" t="s">
+        <v>684</v>
+      </c>
+      <c r="F590" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6">
+      <c r="A591" s="1">
+        <v>401810017</v>
+      </c>
+      <c r="B591" s="1">
+        <f t="shared" si="35"/>
+        <v>401810017</v>
+      </c>
+      <c r="C591" t="s">
+        <v>686</v>
+      </c>
+      <c r="F591"/>
+    </row>
+    <row r="592" spans="3:6">
+      <c r="C592"/>
+      <c r="F592"/>
+    </row>
+    <row r="593" spans="1:6">
+      <c r="A593" s="1">
+        <v>401910001</v>
+      </c>
+      <c r="B593" s="1">
+        <f t="shared" ref="B593:B601" si="36">A593</f>
+        <v>401910001</v>
+      </c>
+      <c r="C593"/>
+      <c r="F593" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6">
+      <c r="A594" s="1">
+        <v>401910002</v>
+      </c>
+      <c r="B594" s="1">
+        <f t="shared" si="36"/>
+        <v>401910002</v>
+      </c>
+      <c r="C594" t="s">
+        <v>687</v>
+      </c>
+      <c r="F594" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6">
+      <c r="A595" s="1">
+        <v>401910003</v>
+      </c>
+      <c r="B595" s="1">
+        <f t="shared" si="36"/>
+        <v>401910003</v>
+      </c>
+      <c r="C595" t="s">
+        <v>688</v>
+      </c>
+      <c r="F595" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6">
+      <c r="A596" s="1">
+        <v>401910004</v>
+      </c>
+      <c r="B596" s="1">
+        <f t="shared" si="36"/>
+        <v>401910004</v>
+      </c>
+      <c r="C596"/>
+      <c r="F596" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6">
+      <c r="A597" s="1">
+        <v>401910005</v>
+      </c>
+      <c r="B597" s="1">
+        <f t="shared" si="36"/>
+        <v>401910005</v>
+      </c>
+      <c r="C597"/>
+      <c r="F597" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6">
+      <c r="A598" s="1">
+        <v>401910006</v>
+      </c>
+      <c r="B598" s="1">
+        <f t="shared" si="36"/>
+        <v>401910006</v>
+      </c>
+      <c r="C598"/>
+      <c r="F598" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6">
+      <c r="A599" s="1">
+        <v>401910007</v>
+      </c>
+      <c r="B599" s="1">
+        <f t="shared" si="36"/>
+        <v>401910007</v>
+      </c>
+      <c r="C599"/>
+      <c r="F599" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6">
+      <c r="A600" s="1">
+        <v>401910008</v>
+      </c>
+      <c r="B600" s="1">
+        <f t="shared" si="36"/>
+        <v>401910008</v>
+      </c>
+      <c r="C600" t="s">
+        <v>690</v>
+      </c>
+      <c r="F600" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6">
+      <c r="A601" s="1">
+        <v>401910009</v>
+      </c>
+      <c r="B601" s="1">
+        <f t="shared" si="36"/>
+        <v>401910009</v>
+      </c>
+      <c r="C601" t="s">
+        <v>692</v>
+      </c>
+      <c r="F601"/>
+    </row>
+    <row r="602" spans="3:6">
+      <c r="C602"/>
+      <c r="F602"/>
+    </row>
+    <row r="603" spans="1:6">
+      <c r="A603" s="1">
+        <v>402010001</v>
+      </c>
+      <c r="B603" s="1">
+        <f>A603</f>
+        <v>402010001</v>
+      </c>
+      <c r="C603" t="s">
+        <v>693</v>
+      </c>
+      <c r="F603" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6">
+      <c r="A604" s="1">
+        <v>402010002</v>
+      </c>
+      <c r="B604" s="1">
+        <f t="shared" ref="B604:B621" si="37">A604</f>
+        <v>402010002</v>
+      </c>
+      <c r="C604" t="s">
+        <v>694</v>
+      </c>
+      <c r="F604" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6">
+      <c r="A605" s="1">
+        <v>402010003</v>
+      </c>
+      <c r="B605" s="1">
+        <f t="shared" si="37"/>
+        <v>402010003</v>
+      </c>
+      <c r="C605"/>
+      <c r="F605" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6">
+      <c r="A606" s="1">
+        <v>402010004</v>
+      </c>
+      <c r="B606" s="1">
+        <f t="shared" si="37"/>
+        <v>402010004</v>
+      </c>
+      <c r="C606"/>
+      <c r="F606" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6">
+      <c r="A607" s="1">
+        <v>402010005</v>
+      </c>
+      <c r="B607" s="1">
+        <f t="shared" si="37"/>
+        <v>402010005</v>
+      </c>
+      <c r="C607"/>
+      <c r="F607" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6">
+      <c r="A608" s="1">
+        <v>402010006</v>
+      </c>
+      <c r="B608" s="1">
+        <f t="shared" si="37"/>
+        <v>402010006</v>
+      </c>
+      <c r="C608"/>
+      <c r="F608" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6">
+      <c r="A609" s="1">
+        <v>402010007</v>
+      </c>
+      <c r="B609" s="1">
+        <f t="shared" si="37"/>
+        <v>402010007</v>
+      </c>
+      <c r="C609"/>
+      <c r="F609" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6">
+      <c r="A610" s="1">
+        <v>402010008</v>
+      </c>
+      <c r="B610" s="1">
+        <f t="shared" si="37"/>
+        <v>402010008</v>
+      </c>
+      <c r="C610" t="s">
+        <v>698</v>
+      </c>
+      <c r="F610" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6">
+      <c r="A611" s="1">
+        <v>402010009</v>
+      </c>
+      <c r="B611" s="1">
+        <f t="shared" si="37"/>
+        <v>402010009</v>
+      </c>
+      <c r="C611" t="s">
+        <v>699</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6">
+      <c r="A612" s="1">
+        <v>402010010</v>
+      </c>
+      <c r="B612" s="1">
+        <f t="shared" si="37"/>
+        <v>402010010</v>
+      </c>
+      <c r="C612"/>
+      <c r="F612" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6">
+      <c r="A613" s="1">
+        <v>402010011</v>
+      </c>
+      <c r="B613" s="1">
+        <f t="shared" si="37"/>
+        <v>402010011</v>
+      </c>
+      <c r="C613" t="s">
+        <v>701</v>
+      </c>
+      <c r="F613"/>
+    </row>
+    <row r="614" spans="3:6">
+      <c r="C614"/>
+      <c r="F614"/>
+    </row>
+    <row r="615" spans="1:6">
+      <c r="A615" s="1">
+        <v>402110001</v>
+      </c>
+      <c r="B615" s="1">
+        <f>A615</f>
+        <v>402110001</v>
+      </c>
+      <c r="C615" t="s">
+        <v>519</v>
+      </c>
+      <c r="F615" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6">
+      <c r="A616" s="1">
+        <v>402110002</v>
+      </c>
+      <c r="B616" s="1">
+        <f t="shared" ref="B616:B633" si="38">A616</f>
+        <v>402110002</v>
+      </c>
+      <c r="C616" t="s">
+        <v>703</v>
+      </c>
+      <c r="F616" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6">
+      <c r="A617" s="1">
+        <v>402110003</v>
+      </c>
+      <c r="B617" s="1">
+        <f t="shared" si="38"/>
+        <v>402110003</v>
+      </c>
+      <c r="C617" t="s">
+        <v>704</v>
+      </c>
+      <c r="F617" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6">
+      <c r="A618" s="1">
+        <v>402110004</v>
+      </c>
+      <c r="B618" s="1">
+        <f t="shared" si="38"/>
+        <v>402110004</v>
+      </c>
+      <c r="C618" t="s">
+        <v>705</v>
+      </c>
+      <c r="F618" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6">
+      <c r="A619" s="1">
+        <v>402110005</v>
+      </c>
+      <c r="B619" s="1">
+        <f t="shared" si="38"/>
+        <v>402110005</v>
+      </c>
+      <c r="C619" t="s">
+        <v>706</v>
+      </c>
+      <c r="F619" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6">
+      <c r="A620" s="1">
+        <v>402110006</v>
+      </c>
+      <c r="B620" s="1">
+        <f t="shared" si="38"/>
+        <v>402110006</v>
+      </c>
+      <c r="C620" t="s">
+        <v>708</v>
+      </c>
+      <c r="F620" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6">
+      <c r="A621" s="1">
+        <v>402110007</v>
+      </c>
+      <c r="B621" s="1">
+        <f t="shared" si="38"/>
+        <v>402110007</v>
+      </c>
+      <c r="C621" t="s">
+        <v>709</v>
+      </c>
+      <c r="F621"/>
+    </row>
+    <row r="622" spans="3:3">
+      <c r="C622" s="3"/>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" s="1">
+        <v>500110001</v>
+      </c>
+      <c r="B623" s="1">
+        <f>A623</f>
+        <v>500110001</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" s="1">
+        <v>500110002</v>
+      </c>
+      <c r="B624" s="1">
+        <f>A624</f>
+        <v>500110002</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" s="1">
+        <v>500210001</v>
+      </c>
+      <c r="B626" s="1">
+        <f>A626</f>
+        <v>500210001</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" s="1">
+        <v>600110001</v>
+      </c>
+      <c r="B628" s="1">
+        <f t="shared" ref="B628:B633" si="39">A628</f>
+        <v>600110001</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6">
+      <c r="A629" s="1">
+        <v>600110002</v>
+      </c>
+      <c r="B629" s="1">
+        <f t="shared" si="39"/>
+        <v>600110002</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" s="1">
+        <v>600190001</v>
+      </c>
+      <c r="B630" s="1">
+        <f t="shared" si="39"/>
+        <v>600190001</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6">
+      <c r="A631" s="1">
+        <v>600110003</v>
+      </c>
+      <c r="B631" s="1">
+        <f t="shared" si="39"/>
+        <v>600110003</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6">
+      <c r="A632" s="1">
+        <v>600110004</v>
+      </c>
+      <c r="B632" s="1">
+        <f t="shared" si="39"/>
+        <v>600110004</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6">
+      <c r="A633" s="1">
         <v>600110005</v>
       </c>
-      <c r="B585" s="1">
-        <f t="shared" si="34"/>
+      <c r="B633" s="1">
+        <f t="shared" si="39"/>
         <v>600110005</v>
       </c>
-      <c r="C585" t="s">
-        <v>678</v>
-      </c>
-      <c r="F585" s="1" t="s">
-        <v>679</v>
+      <c r="C633" t="s">
+        <v>726</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6">
+      <c r="A634" s="1">
+        <v>600110006</v>
+      </c>
+      <c r="B634" s="1">
+        <f>A634</f>
+        <v>600110006</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6">
+      <c r="A635" s="1">
+        <v>600110007</v>
+      </c>
+      <c r="B635" s="1">
+        <f>A635</f>
+        <v>600110007</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6">
+      <c r="A636" s="1">
+        <v>600110008</v>
+      </c>
+      <c r="B636" s="1">
+        <f>A636</f>
+        <v>600110008</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6">
+      <c r="A637" s="1">
+        <v>600110009</v>
+      </c>
+      <c r="B637" s="1">
+        <f>A637</f>
+        <v>600110009</v>
+      </c>
+      <c r="C637" t="s">
+        <v>734</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6">
+      <c r="A638" s="1">
+        <v>600110010</v>
+      </c>
+      <c r="B638" s="1">
+        <f>A638</f>
+        <v>600110010</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6">
+      <c r="A639" s="1">
+        <v>600110011</v>
+      </c>
+      <c r="B639" s="1">
+        <f>A639</f>
+        <v>600110011</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
@@ -3195,8 +3195,8 @@
   <sheetPr/>
   <dimension ref="A1:X639"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="F639" sqref="F639"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -12154,7 +12154,7 @@
         <v>600110001</v>
       </c>
       <c r="B628" s="1">
-        <f t="shared" ref="B628:B633" si="39">A628</f>
+        <f t="shared" ref="B628:B639" si="39">A628</f>
         <v>600110001</v>
       </c>
       <c r="C628" s="1" t="s">
@@ -12244,7 +12244,7 @@
         <v>600110006</v>
       </c>
       <c r="B634" s="1">
-        <f>A634</f>
+        <f t="shared" si="39"/>
         <v>600110006</v>
       </c>
       <c r="C634" s="1" t="s">
@@ -12259,7 +12259,7 @@
         <v>600110007</v>
       </c>
       <c r="B635" s="1">
-        <f>A635</f>
+        <f t="shared" si="39"/>
         <v>600110007</v>
       </c>
       <c r="C635" s="1" t="s">
@@ -12274,7 +12274,7 @@
         <v>600110008</v>
       </c>
       <c r="B636" s="1">
-        <f>A636</f>
+        <f t="shared" si="39"/>
         <v>600110008</v>
       </c>
       <c r="C636" s="1" t="s">
@@ -12289,7 +12289,7 @@
         <v>600110009</v>
       </c>
       <c r="B637" s="1">
-        <f>A637</f>
+        <f t="shared" si="39"/>
         <v>600110009</v>
       </c>
       <c r="C637" t="s">
@@ -12304,7 +12304,7 @@
         <v>600110010</v>
       </c>
       <c r="B638" s="1">
-        <f>A638</f>
+        <f t="shared" si="39"/>
         <v>600110010</v>
       </c>
       <c r="C638" s="1" t="s">
@@ -12319,7 +12319,7 @@
         <v>600110011</v>
       </c>
       <c r="B639" s="1">
-        <f>A639</f>
+        <f t="shared" si="39"/>
         <v>600110011</v>
       </c>
       <c r="C639" s="1" t="s">

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
@@ -3196,7 +3196,7 @@
   <dimension ref="A1:X639"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Emperor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView windowWidth="22188" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="753">
   <si>
     <t>@default</t>
   </si>
@@ -2234,12 +2234,51 @@
   </si>
   <si>
     <t>孝平帝</t>
+  </si>
+  <si>
+    <t>宇文泰</t>
+  </si>
+  <si>
+    <t>太祖</t>
+  </si>
+  <si>
+    <t>文帝</t>
+  </si>
+  <si>
+    <t>宇文覺</t>
+  </si>
+  <si>
+    <t>孝閔帝</t>
+  </si>
+  <si>
+    <t>宇文毓</t>
+  </si>
+  <si>
+    <t>明帝</t>
+  </si>
+  <si>
+    <t>宇文邕</t>
+  </si>
+  <si>
+    <t>武帝</t>
+  </si>
+  <si>
+    <t>宇文贇</t>
+  </si>
+  <si>
+    <t>宣帝</t>
+  </si>
+  <si>
+    <t>宇文衍</t>
+  </si>
+  <si>
+    <t>靜帝</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2267,34 +2306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2308,14 +2319,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2355,6 +2358,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2405,7 +2423,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2420,55 +2459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2486,31 +2483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2534,6 +2519,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2546,7 +2543,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2570,7 +2591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2594,6 +2627,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2611,21 +2650,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2658,6 +2682,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2716,148 +2755,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2877,52 +2916,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3193,10 +3232,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X639"/>
+  <dimension ref="A1:X646"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A633" workbookViewId="0">
+      <selection activeCell="D641" sqref="D641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -12329,6 +12368,99 @@
         <v>739</v>
       </c>
     </row>
+    <row r="641" spans="1:6">
+      <c r="A641" s="1">
+        <v>1100510001</v>
+      </c>
+      <c r="B641" s="1">
+        <f>A641</f>
+        <v>1100510001</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6">
+      <c r="A642" s="1">
+        <v>1100510002</v>
+      </c>
+      <c r="B642" s="1">
+        <f>A642</f>
+        <v>1100510002</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6">
+      <c r="A643" s="1">
+        <v>1100510003</v>
+      </c>
+      <c r="B643" s="1">
+        <f>A643</f>
+        <v>1100510003</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6">
+      <c r="A644" s="1">
+        <v>1100510004</v>
+      </c>
+      <c r="B644" s="1">
+        <f>A644</f>
+        <v>1100510004</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6">
+      <c r="A645" s="1">
+        <v>1100510005</v>
+      </c>
+      <c r="B645" s="1">
+        <f>A645</f>
+        <v>1100510005</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6">
+      <c r="A646" s="1">
+        <v>1100510006</v>
+      </c>
+      <c r="B646" s="1">
+        <f>A646</f>
+        <v>1100510006</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
